--- a/TI-1.4 1819-Scrum-tijdregistratie-v1.0.xlsx
+++ b/TI-1.4 1819-Scrum-tijdregistratie-v1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr checkCompatibility="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Levi Vlasblom\Desktop\schooltroep\Avans Jaar 1\1.4\Proftaak\ProftaakA2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8506999-5EEF-49E9-BBC8-BA6EEF9A580E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6C3490-AE4F-4DF4-A660-279767EFCEE8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="briefje voorbeeld" sheetId="15" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="102">
   <si>
     <t>analyse van de tijdens de sprint bestede tijd</t>
   </si>
@@ -183,21 +183,6 @@
     <t>registratie en analyse van de tijdens de sprint bestede uren</t>
   </si>
   <si>
-    <t>naam1</t>
-  </si>
-  <si>
-    <t>naam2</t>
-  </si>
-  <si>
-    <t>naam3</t>
-  </si>
-  <si>
-    <t>naam4</t>
-  </si>
-  <si>
-    <t>naam6</t>
-  </si>
-  <si>
     <t>door wie</t>
   </si>
   <si>
@@ -274,6 +259,87 @@
   </si>
   <si>
     <t>Klassendiagram deel 2</t>
+  </si>
+  <si>
+    <t>Trello opzetten</t>
+  </si>
+  <si>
+    <t>QR code uitwerking</t>
+  </si>
+  <si>
+    <t>PIR sensor uitwerking</t>
+  </si>
+  <si>
+    <t>Animatronic uitwerking</t>
+  </si>
+  <si>
+    <t>App design beter uitwerken</t>
+  </si>
+  <si>
+    <t>Klassendiagram verbeteren</t>
+  </si>
+  <si>
+    <t>Levi, Yoram, Ties</t>
+  </si>
+  <si>
+    <t>Allemaal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activties realiseren op android </t>
+  </si>
+  <si>
+    <t>Animatronic uitwerken</t>
+  </si>
+  <si>
+    <t>Ardouino opzetten</t>
+  </si>
+  <si>
+    <t>Levi, Yoram</t>
+  </si>
+  <si>
+    <t>QR-code implementeren</t>
+  </si>
+  <si>
+    <t>QR-code bugs fixen</t>
+  </si>
+  <si>
+    <t>Hanno, Ties</t>
+  </si>
+  <si>
+    <t>Levi,Yoram</t>
+  </si>
+  <si>
+    <t>Hanno,Ties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pir-sensor implementeren </t>
+  </si>
+  <si>
+    <t>Hardware klaarmaken</t>
+  </si>
+  <si>
+    <t>Activities design afmaken</t>
+  </si>
+  <si>
+    <t>Compas + hint implementeren activty</t>
+  </si>
+  <si>
+    <t>QR-code Implementeren activity</t>
+  </si>
+  <si>
+    <t>Geo-borders implementeren</t>
+  </si>
+  <si>
+    <t>Presentatie opgezet</t>
+  </si>
+  <si>
+    <t>Ties, Pascal, Yoram</t>
+  </si>
+  <si>
+    <t>Stijn, Ties</t>
+  </si>
+  <si>
+    <t>Ties, Hanno</t>
   </si>
 </sst>
 </file>
@@ -361,7 +427,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,6 +443,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -971,7 +1043,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1334,6 +1406,48 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1358,46 +1472,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1433,12 +1523,6 @@
     <xf numFmtId="2" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1448,16 +1532,10 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1465,141 +1543,7 @@
     <cellStyle name="Procent" xfId="1" builtinId="5"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="46">
     <dxf>
       <font>
         <color rgb="FFFFFF00"/>
@@ -1777,6 +1721,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -1825,6 +1779,110 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2211,12 +2269,12 @@
         <v>8</v>
       </c>
       <c r="F4" s="115" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="2:6" s="1" customFormat="1" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="118" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C5" s="119"/>
       <c r="D5" s="109"/>
@@ -2272,15 +2330,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B2" s="124" t="s">
+      <c r="B2" s="138" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="str">
@@ -2357,17 +2415,17 @@
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B6" s="125" t="s">
+      <c r="B6" s="139" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="127"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="141"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -2380,40 +2438,40 @@
     </row>
     <row r="7" spans="2:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="128" t="s">
+      <c r="B8" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="130" t="s">
+      <c r="C8" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="130" t="s">
+      <c r="D8" s="123"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="124"/>
+      <c r="G8" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="131"/>
-      <c r="I8" s="131"/>
-      <c r="J8" s="132"/>
-      <c r="L8" s="130" t="s">
+      <c r="H8" s="123"/>
+      <c r="I8" s="123"/>
+      <c r="J8" s="124"/>
+      <c r="L8" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="131"/>
-      <c r="N8" s="131"/>
-      <c r="O8" s="131"/>
-      <c r="P8" s="131"/>
-      <c r="Q8" s="132"/>
-      <c r="S8" s="130" t="s">
+      <c r="M8" s="123"/>
+      <c r="N8" s="123"/>
+      <c r="O8" s="123"/>
+      <c r="P8" s="123"/>
+      <c r="Q8" s="124"/>
+      <c r="S8" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="T8" s="131"/>
-      <c r="U8" s="131"/>
-      <c r="V8" s="131"/>
-      <c r="W8" s="131"/>
-      <c r="X8" s="132"/>
+      <c r="T8" s="123"/>
+      <c r="U8" s="123"/>
+      <c r="V8" s="123"/>
+      <c r="W8" s="123"/>
+      <c r="X8" s="124"/>
     </row>
     <row r="9" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="129"/>
+      <c r="B9" s="143"/>
       <c r="C9" s="18" t="s">
         <v>2</v>
       </c>
@@ -2439,22 +2497,22 @@
         <v>4</v>
       </c>
       <c r="L9" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q9" s="19" t="s">
         <v>72</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q9" s="19" t="s">
-        <v>77</v>
       </c>
       <c r="S9" s="49" t="str">
         <f>L9</f>
@@ -2483,30 +2541,30 @@
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B10" s="16" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C10" s="20">
         <v>1</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E10" s="15">
         <f>C10*$C$41</f>
         <v>0.25</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G10" s="20">
         <v>1</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I10" s="46"/>
       <c r="J10" s="51" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="L10" s="40">
         <f>IF($D10=L$9,$C10,0)+IF($F10=L$9,$E10,0)</f>
@@ -2533,59 +2591,59 @@
         <v>0</v>
       </c>
       <c r="S10" s="40">
-        <f>IF($H10=S$9,$G10,0)+IF($J10=S$9,$I10,0)</f>
+        <f t="shared" ref="S10:X12" si="3">IF($H10=S$9,$G10,0)+IF($J10=S$9,$I10,0)</f>
         <v>1</v>
       </c>
       <c r="T10" s="41">
-        <f>IF($H10=T$9,$G10,0)+IF($J10=T$9,$I10,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U10" s="41">
-        <f>IF($H10=U$9,$G10,0)+IF($J10=U$9,$I10,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V10" s="41">
-        <f>IF($H10=V$9,$G10,0)+IF($J10=V$9,$I10,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W10" s="41">
-        <f>IF($H10=W$9,$G10,0)+IF($J10=W$9,$I10,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X10" s="42">
-        <f>IF($H10=X$9,$G10,0)+IF($J10=X$9,$I10,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C11" s="20">
         <v>1</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E11" s="15">
-        <f t="shared" ref="E11:E34" si="3">C11*$C$41</f>
+        <f t="shared" ref="E11:E34" si="4">C11*$C$41</f>
         <v>0.25</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G11" s="20">
         <v>1</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I11" s="46"/>
       <c r="J11" s="51" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="L11" s="40">
-        <f t="shared" ref="L11:Q26" si="4">IF($D11=L$9,$C11,0)+IF($F11=L$9,$E11,0)</f>
+        <f t="shared" ref="L11:Q26" si="5">IF($D11=L$9,$C11,0)+IF($F11=L$9,$E11,0)</f>
         <v>0</v>
       </c>
       <c r="M11" s="41">
@@ -2609,59 +2667,59 @@
         <v>1.25</v>
       </c>
       <c r="S11" s="40">
-        <f>IF($H11=S$9,$G11,0)+IF($J11=S$9,$I11,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T11" s="41">
-        <f>IF($H11=T$9,$G11,0)+IF($J11=T$9,$I11,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U11" s="41">
-        <f>IF($H11=U$9,$G11,0)+IF($J11=U$9,$I11,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V11" s="41">
-        <f>IF($H11=V$9,$G11,0)+IF($J11=V$9,$I11,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W11" s="41">
-        <f>IF($H11=W$9,$G11,0)+IF($J11=W$9,$I11,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X11" s="42">
-        <f>IF($H11=X$9,$G11,0)+IF($J11=X$9,$I11,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C12" s="20">
         <v>3</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E12" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G12" s="20">
         <v>3</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I12" s="46"/>
       <c r="J12" s="21" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L12" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M12" s="41">
@@ -2685,53 +2743,53 @@
         <v>0</v>
       </c>
       <c r="S12" s="40">
-        <f>IF($H12=S$9,$G12,0)+IF($J12=S$9,$I12,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T12" s="41">
-        <f>IF($H12=T$9,$G12,0)+IF($J12=T$9,$I12,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U12" s="41">
-        <f>IF($H12=U$9,$G12,0)+IF($J12=U$9,$I12,0)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="V12" s="41">
-        <f>IF($H12=V$9,$G12,0)+IF($J12=V$9,$I12,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W12" s="41">
-        <f>IF($H12=W$9,$G12,0)+IF($J12=W$9,$I12,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X12" s="42">
-        <f>IF($H12=X$9,$G12,0)+IF($J12=X$9,$I12,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C13" s="20">
         <v>3</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="4"/>
       <c r="I13" s="46"/>
       <c r="J13" s="21"/>
       <c r="L13" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M13" s="41">
@@ -2755,199 +2813,199 @@
         <v>0.75</v>
       </c>
       <c r="S13" s="40">
-        <f t="shared" ref="S13:X26" si="5">IF($H13=S$9,$G13,0)+IF($J13=S$9,$I13,0)</f>
+        <f t="shared" ref="S13:X26" si="6">IF($H13=S$9,$G13,0)+IF($J13=S$9,$I13,0)</f>
         <v>0</v>
       </c>
       <c r="T13" s="41">
-        <f t="shared" ref="T13:X25" si="6">IF($H13=T$9,$G13,0)+IF($J13=T$9,$I13,0)</f>
+        <f t="shared" ref="T13:X25" si="7">IF($H13=T$9,$G13,0)+IF($J13=T$9,$I13,0)</f>
         <v>0</v>
       </c>
       <c r="U13" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V13" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W13" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X13" s="42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C14" s="20">
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E14" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="4"/>
       <c r="I14" s="46"/>
       <c r="J14" s="21"/>
       <c r="L14" s="40">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="M14" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="42">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S14" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="42">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B15" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="20">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="15">
         <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
-      <c r="M14" s="41">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="41">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="41">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="41">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="42">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="S14" s="40">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T14" s="41">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U14" s="41">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V14" s="41">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W14" s="41">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X14" s="42">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="20">
-        <v>1</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="15">
-        <f t="shared" si="3"/>
-        <v>0.25</v>
-      </c>
       <c r="F15" s="21" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G15" s="20">
         <v>1</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I15" s="46"/>
       <c r="J15" s="21" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="L15" s="40">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M15" s="41">
-        <f t="shared" si="2"/>
-        <v>0.25</v>
-      </c>
-      <c r="N15" s="41">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="41">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="41">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S15" s="40">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
+      <c r="M15" s="41">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="N15" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="40">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
       <c r="T15" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U15" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V15" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W15" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X15" s="42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B16" s="16" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C16" s="20">
         <v>3</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E16" s="15">
-        <f t="shared" ref="E16" si="7">C16*$C$41</f>
+        <f t="shared" ref="E16" si="8">C16*$C$41</f>
         <v>0.75</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="4"/>
       <c r="I16" s="46"/>
       <c r="J16" s="21"/>
       <c r="L16" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="M16" s="41">
@@ -2971,53 +3029,53 @@
         <v>0</v>
       </c>
       <c r="S16" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T16" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U16" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V16" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W16" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X16" s="42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B17" s="16" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C17" s="20">
         <v>3</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E17" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="4"/>
       <c r="I17" s="46"/>
       <c r="J17" s="21"/>
       <c r="L17" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M17" s="41">
@@ -3041,53 +3099,53 @@
         <v>0</v>
       </c>
       <c r="S17" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T17" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U17" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V17" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W17" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X17" s="42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C18" s="20">
         <v>1</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E18" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G18" s="20"/>
       <c r="H18" s="4"/>
       <c r="I18" s="46"/>
       <c r="J18" s="21"/>
       <c r="L18" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M18" s="41">
@@ -3111,53 +3169,53 @@
         <v>1.25</v>
       </c>
       <c r="S18" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T18" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U18" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V18" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W18" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X18" s="42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B19" s="16" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C19" s="20">
         <v>1</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E19" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G19" s="20"/>
       <c r="H19" s="4"/>
       <c r="I19" s="46"/>
       <c r="J19" s="21"/>
       <c r="L19" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M19" s="41">
@@ -3181,53 +3239,53 @@
         <v>0</v>
       </c>
       <c r="S19" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T19" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U19" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V19" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W19" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X19" s="42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C20" s="20">
         <v>2</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G20" s="20"/>
       <c r="H20" s="4"/>
       <c r="I20" s="46"/>
       <c r="J20" s="21"/>
       <c r="L20" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M20" s="41">
@@ -3251,53 +3309,53 @@
         <v>0</v>
       </c>
       <c r="S20" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T20" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U20" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V20" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W20" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X20" s="42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B21" s="16" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C21" s="20">
         <v>2</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E21" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G21" s="20"/>
       <c r="H21" s="4"/>
       <c r="I21" s="46"/>
       <c r="J21" s="21"/>
       <c r="L21" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M21" s="41">
@@ -3321,53 +3379,53 @@
         <v>0</v>
       </c>
       <c r="S21" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T21" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U21" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V21" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W21" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X21" s="42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C22" s="20">
         <v>3</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E22" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G22" s="20"/>
       <c r="H22" s="4"/>
       <c r="I22" s="46"/>
       <c r="J22" s="21"/>
       <c r="L22" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M22" s="41">
@@ -3391,53 +3449,53 @@
         <v>3.75</v>
       </c>
       <c r="S22" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T22" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U22" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V22" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W22" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X22" s="42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C23" s="20">
         <v>1</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E23" s="15">
         <f>C23*$C$41</f>
         <v>0.25</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G23" s="20"/>
       <c r="H23" s="4"/>
       <c r="I23" s="46"/>
       <c r="J23" s="21"/>
       <c r="L23" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M23" s="41">
@@ -3461,53 +3519,53 @@
         <v>0</v>
       </c>
       <c r="S23" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T23" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U23" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V23" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W23" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X23" s="42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C24" s="20">
         <v>3</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E24" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G24" s="20"/>
       <c r="H24" s="4"/>
       <c r="I24" s="46"/>
       <c r="J24" s="21"/>
       <c r="L24" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="M24" s="41">
@@ -3531,53 +3589,53 @@
         <v>0</v>
       </c>
       <c r="S24" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T24" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U24" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V24" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W24" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X24" s="42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B25" s="16" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C25" s="20">
         <v>2</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E25" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G25" s="20"/>
       <c r="H25" s="4"/>
       <c r="I25" s="46"/>
       <c r="J25" s="21"/>
       <c r="L25" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M25" s="41">
@@ -3601,167 +3659,167 @@
         <v>0</v>
       </c>
       <c r="S25" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T25" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U25" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V25" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W25" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X25" s="42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C26" s="20">
         <v>2</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E26" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G26" s="20"/>
       <c r="H26" s="4"/>
       <c r="I26" s="46"/>
       <c r="J26" s="21"/>
       <c r="L26" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M26" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N26" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="O26" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P26" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="Q26" s="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S26" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T26" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U26" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V26" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W26" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X26" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B27" s="16" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C27" s="20">
         <v>3</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E27" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G27" s="20"/>
       <c r="H27" s="4"/>
       <c r="I27" s="46"/>
       <c r="J27" s="21"/>
       <c r="L27" s="40">
-        <f t="shared" ref="L27:Q34" si="8">IF($D27=L$9,$C27,0)+IF($F27=L$9,$E27,0)</f>
+        <f t="shared" ref="L27:Q34" si="9">IF($D27=L$9,$C27,0)+IF($F27=L$9,$E27,0)</f>
         <v>0</v>
       </c>
       <c r="M27" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.75</v>
       </c>
       <c r="N27" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O27" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P27" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q27" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S27" s="40">
-        <f t="shared" ref="S27:X34" si="9">IF($H27=S$9,$G27,0)+IF($J27=S$9,$I27,0)</f>
+        <f t="shared" ref="S27:X34" si="10">IF($H27=S$9,$G27,0)+IF($J27=S$9,$I27,0)</f>
         <v>0</v>
       </c>
       <c r="T27" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U27" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V27" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W27" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X27" s="42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -3770,7 +3828,7 @@
       <c r="C28" s="20"/>
       <c r="D28" s="4"/>
       <c r="E28" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F28" s="21"/>
@@ -3779,51 +3837,51 @@
       <c r="I28" s="46"/>
       <c r="J28" s="21"/>
       <c r="L28" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M28" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N28" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O28" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P28" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q28" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S28" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T28" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U28" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V28" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W28" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X28" s="42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -3832,7 +3890,7 @@
       <c r="C29" s="20"/>
       <c r="D29" s="4"/>
       <c r="E29" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F29" s="21"/>
@@ -3841,51 +3899,51 @@
       <c r="I29" s="46"/>
       <c r="J29" s="21"/>
       <c r="L29" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M29" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N29" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O29" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P29" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q29" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S29" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T29" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U29" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V29" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W29" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X29" s="42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -3894,7 +3952,7 @@
       <c r="C30" s="20"/>
       <c r="D30" s="4"/>
       <c r="E30" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F30" s="21"/>
@@ -3903,51 +3961,51 @@
       <c r="I30" s="46"/>
       <c r="J30" s="21"/>
       <c r="L30" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M30" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N30" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O30" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P30" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q30" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S30" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T30" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U30" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V30" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W30" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X30" s="42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -3956,7 +4014,7 @@
       <c r="C31" s="20"/>
       <c r="D31" s="4"/>
       <c r="E31" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F31" s="21"/>
@@ -3965,51 +4023,51 @@
       <c r="I31" s="46"/>
       <c r="J31" s="21"/>
       <c r="L31" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M31" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N31" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O31" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P31" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q31" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S31" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T31" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U31" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V31" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W31" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X31" s="42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -4018,7 +4076,7 @@
       <c r="C32" s="20"/>
       <c r="D32" s="4"/>
       <c r="E32" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F32" s="21"/>
@@ -4027,51 +4085,51 @@
       <c r="I32" s="46"/>
       <c r="J32" s="21"/>
       <c r="L32" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M32" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N32" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O32" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P32" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q32" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S32" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T32" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U32" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V32" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W32" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X32" s="42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -4080,7 +4138,7 @@
       <c r="C33" s="20"/>
       <c r="D33" s="4"/>
       <c r="E33" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F33" s="21"/>
@@ -4089,51 +4147,51 @@
       <c r="I33" s="46"/>
       <c r="J33" s="21"/>
       <c r="L33" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M33" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N33" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O33" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P33" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q33" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S33" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T33" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U33" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V33" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W33" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X33" s="42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -4142,7 +4200,7 @@
       <c r="C34" s="22"/>
       <c r="D34" s="23"/>
       <c r="E34" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F34" s="25"/>
@@ -4153,51 +4211,51 @@
       <c r="I34" s="48"/>
       <c r="J34" s="25"/>
       <c r="L34" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M34" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N34" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O34" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P34" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q34" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S34" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T34" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U34" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V34" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W34" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X34" s="42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -4226,51 +4284,51 @@
       </c>
       <c r="J35" s="35"/>
       <c r="L35" s="43">
-        <f t="shared" ref="L35:Q35" si="10">SUM(L10:L34)</f>
+        <f t="shared" ref="L35:Q35" si="11">SUM(L10:L34)</f>
         <v>8.5</v>
       </c>
       <c r="M35" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="N35" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="O35" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.25</v>
       </c>
       <c r="P35" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.25</v>
       </c>
       <c r="Q35" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="S35" s="36">
-        <f t="shared" ref="S35:X35" si="11">SUM(S10:S34)</f>
+        <f t="shared" ref="S35:X35" si="12">SUM(S10:S34)</f>
         <v>2</v>
       </c>
       <c r="T35" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U35" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="V35" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W35" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="X35" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -4278,47 +4336,47 @@
       <c r="B36" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="133">
+      <c r="C36" s="125">
         <f>C35+E35</f>
         <v>45</v>
       </c>
-      <c r="D36" s="133"/>
-      <c r="E36" s="134"/>
-      <c r="G36" s="135">
+      <c r="D36" s="125"/>
+      <c r="E36" s="126"/>
+      <c r="G36" s="127">
         <f>G35+I35</f>
         <v>7</v>
       </c>
-      <c r="H36" s="136"/>
-      <c r="I36" s="137"/>
-      <c r="L36" s="138">
+      <c r="H36" s="128"/>
+      <c r="I36" s="129"/>
+      <c r="L36" s="130">
         <f>SUM(L35:Q35)</f>
         <v>45</v>
       </c>
-      <c r="M36" s="139"/>
-      <c r="N36" s="139"/>
-      <c r="O36" s="139"/>
-      <c r="P36" s="139"/>
-      <c r="Q36" s="140"/>
-      <c r="S36" s="141">
+      <c r="M36" s="131"/>
+      <c r="N36" s="131"/>
+      <c r="O36" s="131"/>
+      <c r="P36" s="131"/>
+      <c r="Q36" s="132"/>
+      <c r="S36" s="133">
         <f>SUM(S35:X35)</f>
         <v>6</v>
       </c>
-      <c r="T36" s="142"/>
-      <c r="U36" s="142"/>
-      <c r="V36" s="142"/>
-      <c r="W36" s="142"/>
-      <c r="X36" s="143"/>
+      <c r="T36" s="134"/>
+      <c r="U36" s="134"/>
+      <c r="V36" s="134"/>
+      <c r="W36" s="134"/>
+      <c r="X36" s="135"/>
     </row>
     <row r="37" spans="2:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="122">
+      <c r="C37" s="136">
         <f>C39*C40</f>
         <v>42</v>
       </c>
-      <c r="D37" s="122"/>
-      <c r="E37" s="123"/>
+      <c r="D37" s="136"/>
+      <c r="E37" s="137"/>
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="2:24" x14ac:dyDescent="0.25">
@@ -4366,50 +4424,50 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:J8"/>
     <mergeCell ref="S8:X8"/>
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="G36:I36"/>
     <mergeCell ref="L36:Q36"/>
     <mergeCell ref="S36:X36"/>
     <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:J8"/>
   </mergeCells>
   <conditionalFormatting sqref="C17:C34 C10:C15">
-    <cfRule type="cellIs" dxfId="46" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="8" operator="greaterThan">
       <formula>$C$42</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E36">
-    <cfRule type="cellIs" dxfId="45" priority="5" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="44" priority="5" stopIfTrue="1" operator="between">
       <formula>$C$37</formula>
       <formula>$C$37+$C$39*$D$40</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>$C$37</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="7" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="42" priority="7" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>$C$37+$C$39*$D$40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L35:Q35">
-    <cfRule type="cellIs" dxfId="42" priority="2" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="41" priority="2" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>$C$40+$D$40</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="3" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="40" priority="3" stopIfTrue="1" operator="between">
       <formula>$C$40</formula>
       <formula>$C$40+$D$40</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="4" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="39" priority="4" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>$C$40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="39" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="1" operator="greaterThan">
       <formula>$C$42</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4451,15 +4509,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B2" s="160" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
+      <c r="B2" s="144" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B4" s="54" t="str">
@@ -4536,17 +4594,17 @@
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B6" s="161" t="s">
+      <c r="B6" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="155"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="155"/>
-      <c r="F6" s="155"/>
-      <c r="G6" s="155"/>
-      <c r="H6" s="155"/>
-      <c r="I6" s="155"/>
-      <c r="J6" s="156"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
       <c r="L6" s="53"/>
       <c r="M6" s="53"/>
       <c r="N6" s="53"/>
@@ -4559,40 +4617,40 @@
     </row>
     <row r="7" spans="2:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:24" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="162" t="s">
+      <c r="B8" s="148" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="144" t="s">
+      <c r="C8" s="150" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="145"/>
-      <c r="E8" s="145"/>
-      <c r="F8" s="146"/>
-      <c r="G8" s="144" t="s">
+      <c r="D8" s="151"/>
+      <c r="E8" s="151"/>
+      <c r="F8" s="152"/>
+      <c r="G8" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="145"/>
-      <c r="I8" s="145"/>
-      <c r="J8" s="146"/>
-      <c r="L8" s="144" t="s">
+      <c r="H8" s="151"/>
+      <c r="I8" s="151"/>
+      <c r="J8" s="152"/>
+      <c r="L8" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="145"/>
-      <c r="N8" s="145"/>
-      <c r="O8" s="145"/>
-      <c r="P8" s="145"/>
-      <c r="Q8" s="146"/>
-      <c r="S8" s="144" t="s">
+      <c r="M8" s="151"/>
+      <c r="N8" s="151"/>
+      <c r="O8" s="151"/>
+      <c r="P8" s="151"/>
+      <c r="Q8" s="152"/>
+      <c r="S8" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="T8" s="145"/>
-      <c r="U8" s="145"/>
-      <c r="V8" s="145"/>
-      <c r="W8" s="145"/>
-      <c r="X8" s="146"/>
+      <c r="T8" s="151"/>
+      <c r="U8" s="151"/>
+      <c r="V8" s="151"/>
+      <c r="W8" s="151"/>
+      <c r="X8" s="152"/>
     </row>
     <row r="9" spans="2:24" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="163"/>
+      <c r="B9" s="149"/>
       <c r="C9" s="60" t="s">
         <v>2</v>
       </c>
@@ -6493,47 +6551,47 @@
       <c r="B36" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="147">
+      <c r="C36" s="153">
         <f>C35+E35</f>
         <v>41.25</v>
       </c>
-      <c r="D36" s="147"/>
-      <c r="E36" s="148"/>
-      <c r="G36" s="157">
+      <c r="D36" s="153"/>
+      <c r="E36" s="154"/>
+      <c r="G36" s="161">
         <f>G35+I35</f>
         <v>18.2</v>
       </c>
-      <c r="H36" s="158"/>
-      <c r="I36" s="159"/>
-      <c r="L36" s="151">
+      <c r="H36" s="162"/>
+      <c r="I36" s="163"/>
+      <c r="L36" s="157">
         <f>SUM(L35:Q35)</f>
         <v>27.25</v>
       </c>
-      <c r="M36" s="152"/>
-      <c r="N36" s="152"/>
-      <c r="O36" s="152"/>
-      <c r="P36" s="152"/>
-      <c r="Q36" s="153"/>
-      <c r="S36" s="154">
+      <c r="M36" s="158"/>
+      <c r="N36" s="158"/>
+      <c r="O36" s="158"/>
+      <c r="P36" s="158"/>
+      <c r="Q36" s="159"/>
+      <c r="S36" s="160">
         <f>SUM(S35:X35)</f>
         <v>18.2</v>
       </c>
-      <c r="T36" s="155"/>
-      <c r="U36" s="155"/>
-      <c r="V36" s="155"/>
-      <c r="W36" s="155"/>
-      <c r="X36" s="156"/>
+      <c r="T36" s="146"/>
+      <c r="U36" s="146"/>
+      <c r="V36" s="146"/>
+      <c r="W36" s="146"/>
+      <c r="X36" s="147"/>
     </row>
     <row r="37" spans="2:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="149">
+      <c r="C37" s="155">
         <f>C39*C40</f>
         <v>42</v>
       </c>
-      <c r="D37" s="149"/>
-      <c r="E37" s="150"/>
+      <c r="D37" s="155"/>
+      <c r="E37" s="156"/>
       <c r="F37" s="53"/>
     </row>
     <row r="38" spans="2:24" x14ac:dyDescent="0.25">
@@ -6581,11 +6639,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:J8"/>
     <mergeCell ref="S8:X8"/>
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="C37:E37"/>
@@ -6593,33 +6646,38 @@
     <mergeCell ref="S36:X36"/>
     <mergeCell ref="G36:I36"/>
     <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:J8"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:C34">
-    <cfRule type="cellIs" dxfId="38" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="7" operator="greaterThan">
       <formula>$C$42</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E36">
-    <cfRule type="cellIs" dxfId="37" priority="4" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="36" priority="4" stopIfTrue="1" operator="between">
       <formula>$C$37</formula>
       <formula>$C$37+$C$39*$D$40</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>$C$37</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="6" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="34" priority="6" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>$C$37+$C$39*$D$40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L35:Q35">
-    <cfRule type="cellIs" dxfId="34" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="33" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>$C$40+$D$40</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="2" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="32" priority="2" stopIfTrue="1" operator="between">
       <formula>$C$40</formula>
       <formula>$C$40+$D$40</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="3" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="31" priority="3" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>$C$40</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6635,11 +6693,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:X42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="R6" sqref="R6"/>
+      <selection pane="bottomRight" activeCell="B22" activeCellId="2" sqref="B20 B21 B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6657,15 +6715,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B2" s="124" t="s">
+      <c r="B2" s="138" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="str">
@@ -6742,17 +6800,17 @@
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B6" s="125" t="s">
+      <c r="B6" s="139" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="127"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="141"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -6765,40 +6823,40 @@
     </row>
     <row r="7" spans="2:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="128" t="s">
+      <c r="B8" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="130" t="s">
+      <c r="C8" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="130" t="s">
+      <c r="D8" s="123"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="124"/>
+      <c r="G8" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="131"/>
-      <c r="I8" s="131"/>
-      <c r="J8" s="132"/>
-      <c r="L8" s="130" t="s">
+      <c r="H8" s="123"/>
+      <c r="I8" s="123"/>
+      <c r="J8" s="124"/>
+      <c r="L8" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="131"/>
-      <c r="N8" s="131"/>
-      <c r="O8" s="131"/>
-      <c r="P8" s="131"/>
-      <c r="Q8" s="132"/>
-      <c r="S8" s="130" t="s">
+      <c r="M8" s="123"/>
+      <c r="N8" s="123"/>
+      <c r="O8" s="123"/>
+      <c r="P8" s="123"/>
+      <c r="Q8" s="124"/>
+      <c r="S8" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="T8" s="131"/>
-      <c r="U8" s="131"/>
-      <c r="V8" s="131"/>
-      <c r="W8" s="131"/>
-      <c r="X8" s="132"/>
+      <c r="T8" s="123"/>
+      <c r="U8" s="123"/>
+      <c r="V8" s="123"/>
+      <c r="W8" s="123"/>
+      <c r="X8" s="124"/>
     </row>
     <row r="9" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="129"/>
+      <c r="B9" s="143"/>
       <c r="C9" s="18" t="s">
         <v>2</v>
       </c>
@@ -6824,22 +6882,22 @@
         <v>4</v>
       </c>
       <c r="L9" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q9" s="19" t="s">
         <v>72</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q9" s="19" t="s">
-        <v>77</v>
       </c>
       <c r="S9" s="49" t="str">
         <f>L9</f>
@@ -6868,30 +6926,30 @@
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B10" s="16" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C10" s="20">
         <v>1</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E10" s="15">
         <f>C10*$C$41</f>
         <v>0.25</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G10" s="20">
         <v>1</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I10" s="46"/>
       <c r="J10" s="51" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="L10" s="40">
         <f>IF($D10=L$9,$C10,0)+IF($F10=L$9,$E10,0)</f>
@@ -6944,30 +7002,30 @@
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C11" s="20">
         <v>1</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E11" s="15">
         <f t="shared" ref="E11:E27" si="4">C11*$C$41</f>
         <v>0.25</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G11" s="20">
         <v>1</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I11" s="46"/>
       <c r="J11" s="51" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="L11" s="40">
         <f t="shared" ref="L11:Q26" si="5">IF($D11=L$9,$C11,0)+IF($F11=L$9,$E11,0)</f>
@@ -7020,30 +7078,30 @@
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C12" s="20">
         <v>3</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E12" s="15">
         <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G12" s="20">
         <v>3</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I12" s="46"/>
       <c r="J12" s="21" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L12" s="40">
         <f t="shared" si="5"/>
@@ -7096,20 +7154,20 @@
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C13" s="20">
         <v>3</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E13" s="15">
         <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="4"/>
@@ -7166,20 +7224,20 @@
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C14" s="20">
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E14" s="15">
         <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="4"/>
@@ -7236,30 +7294,30 @@
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C15" s="20">
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E15" s="15">
         <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G15" s="20">
         <v>1</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I15" s="46"/>
       <c r="J15" s="21" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="L15" s="40">
         <f t="shared" si="5"/>
@@ -7312,20 +7370,20 @@
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B16" s="16" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C16" s="20">
         <v>3</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E16" s="15">
         <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="4"/>
@@ -7382,20 +7440,20 @@
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B17" s="16" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C17" s="20">
         <v>3</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E17" s="15">
         <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="4"/>
@@ -7452,20 +7510,20 @@
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C18" s="20">
         <v>1</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E18" s="15">
         <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G18" s="20"/>
       <c r="H18" s="4"/>
@@ -7522,20 +7580,20 @@
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B19" s="16" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C19" s="20">
         <v>1</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E19" s="15">
         <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G19" s="20"/>
       <c r="H19" s="4"/>
@@ -7592,20 +7650,20 @@
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C20" s="20">
         <v>2</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E20" s="15">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G20" s="20"/>
       <c r="H20" s="4"/>
@@ -7662,20 +7720,20 @@
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B21" s="16" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C21" s="20">
         <v>2</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E21" s="15">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G21" s="20"/>
       <c r="H21" s="4"/>
@@ -7732,20 +7790,20 @@
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C22" s="20">
         <v>3</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E22" s="15">
         <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G22" s="20"/>
       <c r="H22" s="4"/>
@@ -7802,20 +7860,20 @@
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C23" s="20">
         <v>1</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E23" s="15">
         <f>C23*$C$41</f>
         <v>0.25</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G23" s="20"/>
       <c r="H23" s="4"/>
@@ -7872,20 +7930,20 @@
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C24" s="20">
         <v>3</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E24" s="15">
         <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G24" s="20"/>
       <c r="H24" s="4"/>
@@ -7942,20 +8000,20 @@
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B25" s="16" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C25" s="20">
         <v>2</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E25" s="15">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G25" s="20"/>
       <c r="H25" s="4"/>
@@ -8012,20 +8070,20 @@
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C26" s="20">
         <v>2</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E26" s="15">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G26" s="20"/>
       <c r="H26" s="4"/>
@@ -8082,20 +8140,20 @@
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B27" s="16" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C27" s="20">
         <v>3</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E27" s="15">
         <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G27" s="20"/>
       <c r="H27" s="4"/>
@@ -8155,7 +8213,7 @@
       <c r="C28" s="20"/>
       <c r="D28" s="4"/>
       <c r="E28" s="15">
-        <f t="shared" ref="E11:E34" si="9">C28*$C$41</f>
+        <f t="shared" ref="E28:E34" si="9">C28*$C$41</f>
         <v>0</v>
       </c>
       <c r="F28" s="21"/>
@@ -8661,47 +8719,47 @@
       <c r="B36" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="133">
+      <c r="C36" s="125">
         <f>C35+E35</f>
         <v>45</v>
       </c>
-      <c r="D36" s="133"/>
-      <c r="E36" s="134"/>
-      <c r="G36" s="135">
+      <c r="D36" s="125"/>
+      <c r="E36" s="126"/>
+      <c r="G36" s="127">
         <f>G35+I35</f>
         <v>6</v>
       </c>
-      <c r="H36" s="136"/>
-      <c r="I36" s="137"/>
-      <c r="L36" s="138">
+      <c r="H36" s="128"/>
+      <c r="I36" s="129"/>
+      <c r="L36" s="130">
         <f>SUM(L35:Q35)</f>
         <v>45</v>
       </c>
-      <c r="M36" s="139"/>
-      <c r="N36" s="139"/>
-      <c r="O36" s="139"/>
-      <c r="P36" s="139"/>
-      <c r="Q36" s="140"/>
-      <c r="S36" s="141">
+      <c r="M36" s="131"/>
+      <c r="N36" s="131"/>
+      <c r="O36" s="131"/>
+      <c r="P36" s="131"/>
+      <c r="Q36" s="132"/>
+      <c r="S36" s="133">
         <f>SUM(S35:X35)</f>
         <v>6</v>
       </c>
-      <c r="T36" s="142"/>
-      <c r="U36" s="142"/>
-      <c r="V36" s="142"/>
-      <c r="W36" s="142"/>
-      <c r="X36" s="143"/>
+      <c r="T36" s="134"/>
+      <c r="U36" s="134"/>
+      <c r="V36" s="134"/>
+      <c r="W36" s="134"/>
+      <c r="X36" s="135"/>
     </row>
     <row r="37" spans="2:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="122">
+      <c r="C37" s="136">
         <f>C39*C40</f>
         <v>42</v>
       </c>
-      <c r="D37" s="122"/>
-      <c r="E37" s="123"/>
+      <c r="D37" s="136"/>
+      <c r="E37" s="137"/>
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="2:24" x14ac:dyDescent="0.25">
@@ -8749,55 +8807,55 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:J8"/>
     <mergeCell ref="S8:X8"/>
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="G36:I36"/>
     <mergeCell ref="L36:Q36"/>
     <mergeCell ref="S36:X36"/>
     <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:J8"/>
   </mergeCells>
   <conditionalFormatting sqref="C28:C34">
-    <cfRule type="cellIs" dxfId="31" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="9" operator="greaterThan">
       <formula>$C$42</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E36">
-    <cfRule type="cellIs" dxfId="30" priority="6" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="29" priority="6" stopIfTrue="1" operator="between">
       <formula>$C$37</formula>
       <formula>$C$37+$C$39*$D$40</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>$C$37</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="8" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="27" priority="8" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>$C$37+$C$39*$D$40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L35:Q35">
-    <cfRule type="cellIs" dxfId="27" priority="3" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="26" priority="3" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>$C$40+$D$40</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="4" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="25" priority="4" stopIfTrue="1" operator="between">
       <formula>$C$40</formula>
       <formula>$C$40+$D$40</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="5" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="24" priority="5" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>$C$40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C27 C10:C15">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="greaterThan">
       <formula>$C$42</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="greaterThan">
       <formula>$C$42</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8817,7 +8875,7 @@
       <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="L9" sqref="L9:Q9"/>
+      <selection pane="bottomRight" activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8835,15 +8893,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B2" s="124" t="s">
+      <c r="B2" s="138" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="str">
@@ -8852,22 +8910,22 @@
       </c>
       <c r="C4" s="10">
         <f t="shared" ref="C4:X4" si="0">C35</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="9"/>
       <c r="L4" s="39">
@@ -8880,7 +8938,7 @@
       </c>
       <c r="N4" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O4" s="39">
         <f t="shared" si="0"/>
@@ -8904,7 +8962,7 @@
       </c>
       <c r="U4" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" s="39">
         <f t="shared" si="0"/>
@@ -8920,17 +8978,17 @@
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B6" s="125" t="s">
+      <c r="B6" s="139" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="127"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="141"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -8943,40 +9001,40 @@
     </row>
     <row r="7" spans="2:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="128" t="s">
+      <c r="B8" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="130" t="s">
+      <c r="C8" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="130" t="s">
+      <c r="D8" s="123"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="124"/>
+      <c r="G8" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="131"/>
-      <c r="I8" s="131"/>
-      <c r="J8" s="132"/>
-      <c r="L8" s="130" t="s">
+      <c r="H8" s="123"/>
+      <c r="I8" s="123"/>
+      <c r="J8" s="124"/>
+      <c r="L8" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="131"/>
-      <c r="N8" s="131"/>
-      <c r="O8" s="131"/>
-      <c r="P8" s="131"/>
-      <c r="Q8" s="132"/>
-      <c r="S8" s="130" t="s">
+      <c r="M8" s="123"/>
+      <c r="N8" s="123"/>
+      <c r="O8" s="123"/>
+      <c r="P8" s="123"/>
+      <c r="Q8" s="124"/>
+      <c r="S8" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="T8" s="131"/>
-      <c r="U8" s="131"/>
-      <c r="V8" s="131"/>
-      <c r="W8" s="131"/>
-      <c r="X8" s="132"/>
+      <c r="T8" s="123"/>
+      <c r="U8" s="123"/>
+      <c r="V8" s="123"/>
+      <c r="W8" s="123"/>
+      <c r="X8" s="124"/>
     </row>
     <row r="9" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="129"/>
+      <c r="B9" s="143"/>
       <c r="C9" s="18" t="s">
         <v>2</v>
       </c>
@@ -9002,61 +9060,71 @@
         <v>4</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="Q9" s="19" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="S9" s="49" t="str">
         <f>L9</f>
-        <v>naam1</v>
+        <v>Hanno</v>
       </c>
       <c r="T9" s="10" t="str">
         <f t="shared" ref="T9:X9" si="1">M9</f>
-        <v>naam2</v>
+        <v>Levi</v>
       </c>
       <c r="U9" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>naam3</v>
+        <v>Stijn</v>
       </c>
       <c r="V9" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>naam4</v>
+        <v>Pascal</v>
       </c>
       <c r="W9" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>naam4</v>
+        <v>Ties</v>
       </c>
       <c r="X9" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>naam6</v>
+        <v>Yoram</v>
       </c>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
+      <c r="B10" s="16" t="s">
+        <v>76</v>
+      </c>
       <c r="C10" s="20"/>
-      <c r="D10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="E10" s="15">
         <f>C10*$C$41</f>
         <v>0</v>
       </c>
-      <c r="F10" s="21"/>
+      <c r="F10" s="21" t="s">
+        <v>71</v>
+      </c>
       <c r="G10" s="20"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="51"/>
+      <c r="H10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="164"/>
+      <c r="J10" s="21" t="s">
+        <v>71</v>
+      </c>
       <c r="L10" s="40">
         <f>IF($D10=L$9,$C10,0)+IF($F10=L$9,$E10,0)</f>
         <v>0</v>
@@ -9107,18 +9175,28 @@
       </c>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B11" s="16"/>
+      <c r="B11" s="16" t="s">
+        <v>77</v>
+      </c>
       <c r="C11" s="20"/>
-      <c r="D11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="E11" s="15">
         <f t="shared" ref="E11:E34" si="4">C11*$C$41</f>
         <v>0</v>
       </c>
-      <c r="F11" s="21"/>
+      <c r="F11" s="21" t="s">
+        <v>72</v>
+      </c>
       <c r="G11" s="20"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="51"/>
+      <c r="H11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="164"/>
+      <c r="J11" s="21" t="s">
+        <v>72</v>
+      </c>
       <c r="L11" s="40">
         <f t="shared" ref="L11:Q26" si="5">IF($D11=L$9,$C11,0)+IF($F11=L$9,$E11,0)</f>
         <v>0</v>
@@ -9169,18 +9247,34 @@
       </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B12" s="16"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="4"/>
+      <c r="B12" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="20">
+        <v>5</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="E12" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="21"/>
+        <v>1.25</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="20">
+        <v>5</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" s="164">
+        <v>1</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>68</v>
+      </c>
       <c r="L12" s="40">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -9191,7 +9285,7 @@
       </c>
       <c r="N12" s="41">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O12" s="41">
         <f t="shared" si="2"/>
@@ -9215,7 +9309,7 @@
       </c>
       <c r="U12" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" s="41">
         <f t="shared" si="3"/>
@@ -9231,18 +9325,28 @@
       </c>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
+      <c r="B13" s="16" t="s">
+        <v>79</v>
+      </c>
       <c r="C13" s="20"/>
-      <c r="D13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="E13" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F13" s="21"/>
+      <c r="F13" s="21" t="s">
+        <v>69</v>
+      </c>
       <c r="G13" s="20"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="21"/>
+      <c r="H13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="164"/>
+      <c r="J13" s="21" t="s">
+        <v>69</v>
+      </c>
       <c r="L13" s="40">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -9293,18 +9397,28 @@
       </c>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="16"/>
+      <c r="B14" s="16" t="s">
+        <v>80</v>
+      </c>
       <c r="C14" s="20"/>
-      <c r="D14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="E14" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F14" s="21"/>
+      <c r="F14" s="21" t="s">
+        <v>82</v>
+      </c>
       <c r="G14" s="20"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="21"/>
+      <c r="H14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" s="164"/>
+      <c r="J14" s="21" t="s">
+        <v>82</v>
+      </c>
       <c r="L14" s="40">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -10600,22 +10714,22 @@
       </c>
       <c r="C35" s="27">
         <f>SUM(C10:C34)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D35" s="28"/>
       <c r="E35" s="29">
         <f>SUM(E10:E34)</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="F35" s="32"/>
       <c r="G35" s="33">
         <f>SUM(G10:G34)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H35" s="34"/>
       <c r="I35" s="33">
         <f>SUM(I10:I34)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" s="35"/>
       <c r="L35" s="43">
@@ -10628,7 +10742,7 @@
       </c>
       <c r="N35" s="44">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O35" s="44">
         <f t="shared" si="9"/>
@@ -10652,7 +10766,7 @@
       </c>
       <c r="U35" s="37">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V35" s="37">
         <f t="shared" si="10"/>
@@ -10671,47 +10785,47 @@
       <c r="B36" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="133">
+      <c r="C36" s="125">
         <f>C35+E35</f>
-        <v>0</v>
-      </c>
-      <c r="D36" s="133"/>
-      <c r="E36" s="134"/>
-      <c r="G36" s="135">
+        <v>6.25</v>
+      </c>
+      <c r="D36" s="125"/>
+      <c r="E36" s="126"/>
+      <c r="G36" s="127">
         <f>G35+I35</f>
-        <v>0</v>
-      </c>
-      <c r="H36" s="136"/>
-      <c r="I36" s="137"/>
-      <c r="L36" s="138">
+        <v>6</v>
+      </c>
+      <c r="H36" s="128"/>
+      <c r="I36" s="129"/>
+      <c r="L36" s="130">
         <f>SUM(L35:Q35)</f>
-        <v>0</v>
-      </c>
-      <c r="M36" s="139"/>
-      <c r="N36" s="139"/>
-      <c r="O36" s="139"/>
-      <c r="P36" s="139"/>
-      <c r="Q36" s="140"/>
-      <c r="S36" s="141">
+        <v>1.25</v>
+      </c>
+      <c r="M36" s="131"/>
+      <c r="N36" s="131"/>
+      <c r="O36" s="131"/>
+      <c r="P36" s="131"/>
+      <c r="Q36" s="132"/>
+      <c r="S36" s="133">
         <f>SUM(S35:X35)</f>
-        <v>0</v>
-      </c>
-      <c r="T36" s="142"/>
-      <c r="U36" s="142"/>
-      <c r="V36" s="142"/>
-      <c r="W36" s="142"/>
-      <c r="X36" s="143"/>
+        <v>1</v>
+      </c>
+      <c r="T36" s="134"/>
+      <c r="U36" s="134"/>
+      <c r="V36" s="134"/>
+      <c r="W36" s="134"/>
+      <c r="X36" s="135"/>
     </row>
     <row r="37" spans="2:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="122">
+      <c r="C37" s="136">
         <f>C39*C40</f>
         <v>42</v>
       </c>
-      <c r="D37" s="122"/>
-      <c r="E37" s="123"/>
+      <c r="D37" s="136"/>
+      <c r="E37" s="137"/>
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="2:24" x14ac:dyDescent="0.25">
@@ -10759,45 +10873,45 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:J8"/>
     <mergeCell ref="S8:X8"/>
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="G36:I36"/>
     <mergeCell ref="L36:Q36"/>
     <mergeCell ref="S36:X36"/>
     <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:J8"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:C34">
-    <cfRule type="cellIs" dxfId="24" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="7" operator="greaterThan">
       <formula>$C$42</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E36">
-    <cfRule type="cellIs" dxfId="23" priority="4" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="20" priority="4" stopIfTrue="1" operator="between">
       <formula>$C$37</formula>
       <formula>$C$37+$C$39*$D$40</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>$C$37</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="6" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="18" priority="6" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>$C$37+$C$39*$D$40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L35:Q35">
-    <cfRule type="cellIs" dxfId="20" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>$C$40+$D$40</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="2" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="2" stopIfTrue="1" operator="between">
       <formula>$C$40</formula>
       <formula>$C$40+$D$40</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="3" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="15" priority="3" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>$C$40</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10817,7 +10931,7 @@
       <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="L9" sqref="L9:Q9"/>
+      <selection pane="bottomRight" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10835,15 +10949,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B2" s="124" t="s">
+      <c r="B2" s="138" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="str">
@@ -10852,27 +10966,27 @@
       </c>
       <c r="C4" s="10">
         <f t="shared" ref="C4:X4" si="0">C35</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="9"/>
       <c r="L4" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M4" s="39">
         <f t="shared" si="0"/>
@@ -10880,11 +10994,11 @@
       </c>
       <c r="N4" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="O4" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="P4" s="39">
         <f t="shared" si="0"/>
@@ -10896,7 +11010,7 @@
       </c>
       <c r="S4" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T4" s="39">
         <f t="shared" si="0"/>
@@ -10920,17 +11034,17 @@
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B6" s="125" t="s">
+      <c r="B6" s="139" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="127"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="141"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -10943,40 +11057,40 @@
     </row>
     <row r="7" spans="2:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="128" t="s">
+      <c r="B8" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="130" t="s">
+      <c r="C8" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="130" t="s">
+      <c r="D8" s="123"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="124"/>
+      <c r="G8" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="131"/>
-      <c r="I8" s="131"/>
-      <c r="J8" s="132"/>
-      <c r="L8" s="130" t="s">
+      <c r="H8" s="123"/>
+      <c r="I8" s="123"/>
+      <c r="J8" s="124"/>
+      <c r="L8" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="131"/>
-      <c r="N8" s="131"/>
-      <c r="O8" s="131"/>
-      <c r="P8" s="131"/>
-      <c r="Q8" s="132"/>
-      <c r="S8" s="130" t="s">
+      <c r="M8" s="123"/>
+      <c r="N8" s="123"/>
+      <c r="O8" s="123"/>
+      <c r="P8" s="123"/>
+      <c r="Q8" s="124"/>
+      <c r="S8" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="T8" s="131"/>
-      <c r="U8" s="131"/>
-      <c r="V8" s="131"/>
-      <c r="W8" s="131"/>
-      <c r="X8" s="132"/>
+      <c r="T8" s="123"/>
+      <c r="U8" s="123"/>
+      <c r="V8" s="123"/>
+      <c r="W8" s="123"/>
+      <c r="X8" s="124"/>
     </row>
     <row r="9" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="129"/>
+      <c r="B9" s="143"/>
       <c r="C9" s="18" t="s">
         <v>2</v>
       </c>
@@ -11002,61 +11116,73 @@
         <v>4</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="Q9" s="19" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="S9" s="49" t="str">
         <f>L9</f>
-        <v>naam1</v>
+        <v>Levi</v>
       </c>
       <c r="T9" s="10" t="str">
         <f t="shared" ref="T9:X9" si="1">M9</f>
-        <v>naam2</v>
+        <v>Hanno</v>
       </c>
       <c r="U9" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>naam3</v>
+        <v>Pascal</v>
       </c>
       <c r="V9" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>naam4</v>
+        <v>Stijn</v>
       </c>
       <c r="W9" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>naam4</v>
+        <v>Ties</v>
       </c>
       <c r="X9" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>naam6</v>
+        <v>Yoram</v>
       </c>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
+      <c r="B10" s="16" t="s">
+        <v>83</v>
+      </c>
       <c r="C10" s="20"/>
-      <c r="D10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="E10" s="15">
         <f>C10*$C$41</f>
         <v>0</v>
       </c>
-      <c r="F10" s="21"/>
+      <c r="F10" s="21" t="s">
+        <v>72</v>
+      </c>
       <c r="G10" s="20"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="51"/>
+      <c r="H10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="46">
+        <v>1</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>72</v>
+      </c>
       <c r="L10" s="40">
         <f>IF($D10=L$9,$C10,0)+IF($F10=L$9,$E10,0)</f>
         <v>0</v>
@@ -11083,7 +11209,7 @@
       </c>
       <c r="S10" s="40">
         <f>IF($H10=S$9,$G10,0)+IF($J10=S$9,$I10,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" s="41">
         <f t="shared" ref="T10:X25" si="3">IF($H10=T$9,$G10,0)+IF($J10=T$9,$I10,0)</f>
@@ -11107,18 +11233,32 @@
       </c>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B11" s="16"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="20">
+        <v>3</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="E11" s="15">
         <f t="shared" ref="E11:E34" si="4">C11*$C$41</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="20">
+        <v>4</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="I11" s="46"/>
-      <c r="J11" s="51"/>
+      <c r="J11" s="21" t="s">
+        <v>67</v>
+      </c>
       <c r="L11" s="40">
         <f t="shared" ref="L11:Q26" si="5">IF($D11=L$9,$C11,0)+IF($F11=L$9,$E11,0)</f>
         <v>0</v>
@@ -11129,7 +11269,7 @@
       </c>
       <c r="N11" s="41">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="O11" s="41">
         <f t="shared" si="2"/>
@@ -11169,21 +11309,35 @@
       </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B12" s="16"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="4"/>
+      <c r="B12" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="20">
+        <v>3</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="E12" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="20">
+        <v>5</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="I12" s="46"/>
-      <c r="J12" s="21"/>
+      <c r="J12" s="21" t="s">
+        <v>68</v>
+      </c>
       <c r="L12" s="40">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M12" s="41">
         <f t="shared" si="2"/>
@@ -11195,7 +11349,7 @@
       </c>
       <c r="O12" s="41">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="P12" s="41">
         <f t="shared" si="2"/>
@@ -11207,7 +11361,7 @@
       </c>
       <c r="S12" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T12" s="41">
         <f t="shared" si="3"/>
@@ -11231,18 +11385,28 @@
       </c>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
+      <c r="B13" s="16" t="s">
+        <v>87</v>
+      </c>
       <c r="C13" s="20"/>
-      <c r="D13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="E13" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F13" s="21"/>
+      <c r="F13" s="21" t="s">
+        <v>71</v>
+      </c>
       <c r="G13" s="20"/>
-      <c r="H13" s="4"/>
+      <c r="H13" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="I13" s="46"/>
-      <c r="J13" s="21"/>
+      <c r="J13" s="21" t="s">
+        <v>71</v>
+      </c>
       <c r="L13" s="40">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -11293,18 +11457,28 @@
       </c>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="16"/>
+      <c r="B14" s="16" t="s">
+        <v>88</v>
+      </c>
       <c r="C14" s="20"/>
-      <c r="D14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="E14" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F14" s="21"/>
+      <c r="F14" s="21" t="s">
+        <v>70</v>
+      </c>
       <c r="G14" s="20"/>
-      <c r="H14" s="4"/>
+      <c r="H14" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="I14" s="46"/>
-      <c r="J14" s="21"/>
+      <c r="J14" s="21" t="s">
+        <v>70</v>
+      </c>
       <c r="L14" s="40">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12600,27 +12774,27 @@
       </c>
       <c r="C35" s="27">
         <f>SUM(C10:C34)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D35" s="28"/>
       <c r="E35" s="29">
         <f>SUM(E10:E34)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F35" s="32"/>
       <c r="G35" s="33">
         <f>SUM(G10:G34)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H35" s="34"/>
       <c r="I35" s="33">
         <f>SUM(I10:I34)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" s="35"/>
       <c r="L35" s="43">
         <f t="shared" ref="L35:Q35" si="9">SUM(L10:L34)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M35" s="44">
         <f t="shared" si="9"/>
@@ -12628,11 +12802,11 @@
       </c>
       <c r="N35" s="44">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="O35" s="44">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="P35" s="44">
         <f t="shared" si="9"/>
@@ -12644,7 +12818,7 @@
       </c>
       <c r="S35" s="36">
         <f t="shared" ref="S35:X35" si="10">SUM(S10:S34)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T35" s="37">
         <f t="shared" si="10"/>
@@ -12671,47 +12845,47 @@
       <c r="B36" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="133">
+      <c r="C36" s="125">
         <f>C35+E35</f>
-        <v>0</v>
-      </c>
-      <c r="D36" s="133"/>
-      <c r="E36" s="134"/>
-      <c r="G36" s="135">
+        <v>7.5</v>
+      </c>
+      <c r="D36" s="125"/>
+      <c r="E36" s="126"/>
+      <c r="G36" s="127">
         <f>G35+I35</f>
-        <v>0</v>
-      </c>
-      <c r="H36" s="136"/>
-      <c r="I36" s="137"/>
-      <c r="L36" s="138">
+        <v>10</v>
+      </c>
+      <c r="H36" s="128"/>
+      <c r="I36" s="129"/>
+      <c r="L36" s="130">
         <f>SUM(L35:Q35)</f>
-        <v>0</v>
-      </c>
-      <c r="M36" s="139"/>
-      <c r="N36" s="139"/>
-      <c r="O36" s="139"/>
-      <c r="P36" s="139"/>
-      <c r="Q36" s="140"/>
-      <c r="S36" s="141">
+        <v>4.5</v>
+      </c>
+      <c r="M36" s="131"/>
+      <c r="N36" s="131"/>
+      <c r="O36" s="131"/>
+      <c r="P36" s="131"/>
+      <c r="Q36" s="132"/>
+      <c r="S36" s="133">
         <f>SUM(S35:X35)</f>
-        <v>0</v>
-      </c>
-      <c r="T36" s="142"/>
-      <c r="U36" s="142"/>
-      <c r="V36" s="142"/>
-      <c r="W36" s="142"/>
-      <c r="X36" s="143"/>
+        <v>6</v>
+      </c>
+      <c r="T36" s="134"/>
+      <c r="U36" s="134"/>
+      <c r="V36" s="134"/>
+      <c r="W36" s="134"/>
+      <c r="X36" s="135"/>
     </row>
     <row r="37" spans="2:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="122">
+      <c r="C37" s="136">
         <f>C39*C40</f>
         <v>42</v>
       </c>
-      <c r="D37" s="122"/>
-      <c r="E37" s="123"/>
+      <c r="D37" s="136"/>
+      <c r="E37" s="137"/>
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="2:24" x14ac:dyDescent="0.25">
@@ -12759,45 +12933,45 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:J8"/>
     <mergeCell ref="S8:X8"/>
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="G36:I36"/>
     <mergeCell ref="L36:Q36"/>
     <mergeCell ref="S36:X36"/>
     <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:J8"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:C34">
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="greaterThan">
       <formula>$C$42</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E36">
-    <cfRule type="cellIs" dxfId="16" priority="4" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="13" priority="4" stopIfTrue="1" operator="between">
       <formula>$C$37</formula>
       <formula>$C$37+$C$39*$D$40</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>$C$37</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="6" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="11" priority="6" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>$C$37+$C$39*$D$40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L35:Q35">
-    <cfRule type="cellIs" dxfId="13" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>$C$40+$D$40</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="2" stopIfTrue="1" operator="between">
       <formula>$C$40</formula>
       <formula>$C$40+$D$40</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="3" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="8" priority="3" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>$C$40</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12813,11 +12987,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:X42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="S39" sqref="S39"/>
+      <selection pane="bottomRight" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -12835,15 +13009,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B2" s="124" t="s">
+      <c r="B2" s="138" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="str">
@@ -12852,17 +13026,17 @@
       </c>
       <c r="C4" s="10">
         <f t="shared" ref="C4:X4" si="0">C35</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="10">
@@ -12876,7 +13050,7 @@
       </c>
       <c r="M4" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N4" s="39">
         <f t="shared" si="0"/>
@@ -12888,7 +13062,7 @@
       </c>
       <c r="P4" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="Q4" s="39">
         <f t="shared" si="0"/>
@@ -12900,7 +13074,7 @@
       </c>
       <c r="T4" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U4" s="39">
         <f t="shared" si="0"/>
@@ -12920,17 +13094,17 @@
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B6" s="125" t="s">
+      <c r="B6" s="139" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="127"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="141"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -12943,40 +13117,40 @@
     </row>
     <row r="7" spans="2:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="128" t="s">
+      <c r="B8" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="130" t="s">
+      <c r="C8" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="130" t="s">
+      <c r="D8" s="123"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="124"/>
+      <c r="G8" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="131"/>
-      <c r="I8" s="131"/>
-      <c r="J8" s="132"/>
-      <c r="L8" s="130" t="s">
+      <c r="H8" s="123"/>
+      <c r="I8" s="123"/>
+      <c r="J8" s="124"/>
+      <c r="L8" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="131"/>
-      <c r="N8" s="131"/>
-      <c r="O8" s="131"/>
-      <c r="P8" s="131"/>
-      <c r="Q8" s="132"/>
-      <c r="S8" s="130" t="s">
+      <c r="M8" s="123"/>
+      <c r="N8" s="123"/>
+      <c r="O8" s="123"/>
+      <c r="P8" s="123"/>
+      <c r="Q8" s="124"/>
+      <c r="S8" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="T8" s="131"/>
-      <c r="U8" s="131"/>
-      <c r="V8" s="131"/>
-      <c r="W8" s="131"/>
-      <c r="X8" s="132"/>
+      <c r="T8" s="123"/>
+      <c r="U8" s="123"/>
+      <c r="V8" s="123"/>
+      <c r="W8" s="123"/>
+      <c r="X8" s="124"/>
     </row>
     <row r="9" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="129"/>
+      <c r="B9" s="143"/>
       <c r="C9" s="18" t="s">
         <v>2</v>
       </c>
@@ -13002,68 +13176,82 @@
         <v>4</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="Q9" s="19" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="S9" s="49" t="str">
         <f>L9</f>
-        <v>naam1</v>
+        <v>Hanno</v>
       </c>
       <c r="T9" s="10" t="str">
         <f t="shared" ref="T9:X9" si="1">M9</f>
-        <v>naam2</v>
+        <v>Levi</v>
       </c>
       <c r="U9" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>naam3</v>
+        <v>Pascal</v>
       </c>
       <c r="V9" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>naam4</v>
+        <v>Stijn</v>
       </c>
       <c r="W9" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>naam4</v>
+        <v>Ties</v>
       </c>
       <c r="X9" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>naam6</v>
+        <v>Yoram</v>
       </c>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="4"/>
+      <c r="B10" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="20">
+        <v>5</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="E10" s="15">
         <f>C10*$C$41</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="51"/>
+        <v>1.25</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="165">
+        <v>5</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="164"/>
+      <c r="J10" s="21" t="s">
+        <v>71</v>
+      </c>
       <c r="L10" s="40">
         <f>IF($D10=L$9,$C10,0)+IF($F10=L$9,$E10,0)</f>
         <v>0</v>
       </c>
       <c r="M10" s="41">
         <f t="shared" ref="M10:Q25" si="2">IF($D10=M$9,$C10,0)+IF($F10=M$9,$E10,0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N10" s="41">
         <f t="shared" si="2"/>
@@ -13075,7 +13263,7 @@
       </c>
       <c r="P10" s="41">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Q10" s="42">
         <f t="shared" si="2"/>
@@ -13087,7 +13275,7 @@
       </c>
       <c r="T10" s="41">
         <f t="shared" ref="T10:X25" si="3">IF($H10=T$9,$G10,0)+IF($J10=T$9,$I10,0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U10" s="41">
         <f t="shared" si="3"/>
@@ -13107,25 +13295,39 @@
       </c>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B11" s="16"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="20">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="E11" s="15">
         <f t="shared" ref="E11:E34" si="4">C11*$C$41</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="51"/>
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="20">
+        <v>2</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="164"/>
+      <c r="J11" s="21" t="s">
+        <v>71</v>
+      </c>
       <c r="L11" s="40">
         <f t="shared" ref="L11:Q26" si="5">IF($D11=L$9,$C11,0)+IF($F11=L$9,$E11,0)</f>
         <v>0</v>
       </c>
       <c r="M11" s="41">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N11" s="41">
         <f t="shared" si="2"/>
@@ -13137,7 +13339,7 @@
       </c>
       <c r="P11" s="41">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q11" s="42">
         <f t="shared" si="2"/>
@@ -13149,7 +13351,7 @@
       </c>
       <c r="T11" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U11" s="41">
         <f t="shared" si="3"/>
@@ -13169,18 +13371,28 @@
       </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B12" s="16"/>
+      <c r="B12" s="16" t="s">
+        <v>94</v>
+      </c>
       <c r="C12" s="20"/>
-      <c r="D12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="E12" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F12" s="21"/>
+      <c r="F12" s="21" t="s">
+        <v>70</v>
+      </c>
       <c r="G12" s="20"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="21"/>
+      <c r="H12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="164"/>
+      <c r="J12" s="21" t="s">
+        <v>70</v>
+      </c>
       <c r="L12" s="40">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13231,18 +13443,28 @@
       </c>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
+      <c r="B13" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="C13" s="20"/>
-      <c r="D13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="E13" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F13" s="21"/>
+      <c r="F13" s="21" t="s">
+        <v>68</v>
+      </c>
       <c r="G13" s="20"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="21"/>
+      <c r="H13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="164"/>
+      <c r="J13" s="21" t="s">
+        <v>68</v>
+      </c>
       <c r="L13" s="40">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13293,18 +13515,28 @@
       </c>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="16"/>
+      <c r="B14" s="16" t="s">
+        <v>95</v>
+      </c>
       <c r="C14" s="20"/>
-      <c r="D14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="E14" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F14" s="21"/>
+      <c r="F14" s="21" t="s">
+        <v>68</v>
+      </c>
       <c r="G14" s="20"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="21"/>
+      <c r="H14" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" s="164"/>
+      <c r="J14" s="21" t="s">
+        <v>68</v>
+      </c>
       <c r="L14" s="40">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13355,18 +13587,28 @@
       </c>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="16"/>
+      <c r="B15" s="16" t="s">
+        <v>97</v>
+      </c>
       <c r="C15" s="20"/>
-      <c r="D15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="E15" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F15" s="21"/>
+      <c r="F15" s="21" t="s">
+        <v>69</v>
+      </c>
       <c r="G15" s="20"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="21"/>
+      <c r="H15" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15" s="164"/>
+      <c r="J15" s="21" t="s">
+        <v>69</v>
+      </c>
       <c r="L15" s="40">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13417,18 +13659,28 @@
       </c>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
+      <c r="B16" s="16" t="s">
+        <v>98</v>
+      </c>
       <c r="C16" s="20"/>
-      <c r="D16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="E16" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F16" s="21"/>
+      <c r="F16" s="21" t="s">
+        <v>67</v>
+      </c>
       <c r="G16" s="20"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="21"/>
+      <c r="H16" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I16" s="164"/>
+      <c r="J16" s="21" t="s">
+        <v>72</v>
+      </c>
       <c r="L16" s="40">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -14600,17 +14852,17 @@
       </c>
       <c r="C35" s="27">
         <f>SUM(C10:C34)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D35" s="28"/>
       <c r="E35" s="29">
         <f>SUM(E10:E34)</f>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="F35" s="32"/>
       <c r="G35" s="33">
         <f>SUM(G10:G34)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H35" s="34"/>
       <c r="I35" s="33">
@@ -14624,7 +14876,7 @@
       </c>
       <c r="M35" s="44">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N35" s="44">
         <f t="shared" si="9"/>
@@ -14636,7 +14888,7 @@
       </c>
       <c r="P35" s="44">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="Q35" s="45">
         <f t="shared" si="9"/>
@@ -14648,7 +14900,7 @@
       </c>
       <c r="T35" s="37">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U35" s="37">
         <f t="shared" si="10"/>
@@ -14671,47 +14923,47 @@
       <c r="B36" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="133">
+      <c r="C36" s="125">
         <f>C35+E35</f>
-        <v>0</v>
-      </c>
-      <c r="D36" s="133"/>
-      <c r="E36" s="134"/>
-      <c r="G36" s="135">
+        <v>8.75</v>
+      </c>
+      <c r="D36" s="125"/>
+      <c r="E36" s="126"/>
+      <c r="G36" s="127">
         <f>G35+I35</f>
-        <v>0</v>
-      </c>
-      <c r="H36" s="136"/>
-      <c r="I36" s="137"/>
-      <c r="L36" s="138">
+        <v>7</v>
+      </c>
+      <c r="H36" s="128"/>
+      <c r="I36" s="129"/>
+      <c r="L36" s="130">
         <f>SUM(L35:Q35)</f>
-        <v>0</v>
-      </c>
-      <c r="M36" s="139"/>
-      <c r="N36" s="139"/>
-      <c r="O36" s="139"/>
-      <c r="P36" s="139"/>
-      <c r="Q36" s="140"/>
-      <c r="S36" s="141">
+        <v>8.75</v>
+      </c>
+      <c r="M36" s="131"/>
+      <c r="N36" s="131"/>
+      <c r="O36" s="131"/>
+      <c r="P36" s="131"/>
+      <c r="Q36" s="132"/>
+      <c r="S36" s="133">
         <f>SUM(S35:X35)</f>
-        <v>0</v>
-      </c>
-      <c r="T36" s="142"/>
-      <c r="U36" s="142"/>
-      <c r="V36" s="142"/>
-      <c r="W36" s="142"/>
-      <c r="X36" s="143"/>
+        <v>7</v>
+      </c>
+      <c r="T36" s="134"/>
+      <c r="U36" s="134"/>
+      <c r="V36" s="134"/>
+      <c r="W36" s="134"/>
+      <c r="X36" s="135"/>
     </row>
     <row r="37" spans="2:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="122">
+      <c r="C37" s="136">
         <f>C39*C40</f>
         <v>42</v>
       </c>
-      <c r="D37" s="122"/>
-      <c r="E37" s="123"/>
+      <c r="D37" s="136"/>
+      <c r="E37" s="137"/>
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="2:24" x14ac:dyDescent="0.25">
@@ -14759,46 +15011,51 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:J8"/>
     <mergeCell ref="S8:X8"/>
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="G36:I36"/>
     <mergeCell ref="L36:Q36"/>
     <mergeCell ref="S36:X36"/>
     <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:J8"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:C34">
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
       <formula>$C$42</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E36">
-    <cfRule type="cellIs" dxfId="9" priority="4" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="5" stopIfTrue="1" operator="between">
       <formula>$C$37</formula>
       <formula>$C$37+$C$39*$D$40</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>$C$37</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="7" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>$C$37+$C$39*$D$40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L35:Q35">
-    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>$C$40+$D$40</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="between">
       <formula>$C$40</formula>
       <formula>$C$40+$D$40</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="4" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>$C$40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10:G16">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>$C$42</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -14810,12 +15067,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15022,15 +15276,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A19769AF-35A5-453C-B678-4E12F267A32D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21F7B50A-2E98-44F9-ACD4-50B4039AFCBB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="a24e9797-c9de-4ae0-9124-5b215385d802"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="85fa55d4-3ee8-4bc4-8fbc-63473e847397"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -15055,18 +15321,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21F7B50A-2E98-44F9-ACD4-50B4039AFCBB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A19769AF-35A5-453C-B678-4E12F267A32D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="a24e9797-c9de-4ae0-9124-5b215385d802"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="85fa55d4-3ee8-4bc4-8fbc-63473e847397"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/TI-1.4 1819-Scrum-tijdregistratie-v1.0.xlsx
+++ b/TI-1.4 1819-Scrum-tijdregistratie-v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Levi Vlasblom\Desktop\schooltroep\Avans Jaar 1\1.4\Proftaak\ProftaakA2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6C3490-AE4F-4DF4-A660-279767EFCEE8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A702A790-8917-47A8-8432-E9E4F063D5D9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="103">
   <si>
     <t>analyse van de tijdens de sprint bestede tijd</t>
   </si>
@@ -340,6 +340,9 @@
   </si>
   <si>
     <t>Ties, Hanno</t>
+  </si>
+  <si>
+    <t>Pir-sensor Testen</t>
   </si>
 </sst>
 </file>
@@ -1388,6 +1391,12 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1406,6 +1415,30 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1448,28 +1481,52 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1478,64 +1535,10 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2255,9 +2258,9 @@
         <v>47</v>
       </c>
       <c r="C3" s="113"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="117"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="119"/>
     </row>
     <row r="4" spans="2:6" s="1" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="114"/>
@@ -2273,19 +2276,19 @@
       </c>
     </row>
     <row r="5" spans="2:6" s="1" customFormat="1" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="118" t="s">
+      <c r="B5" s="120" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="119"/>
+      <c r="C5" s="121"/>
       <c r="D5" s="109"/>
       <c r="E5" s="109"/>
       <c r="F5" s="115"/>
     </row>
     <row r="6" spans="2:6" s="1" customFormat="1" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="120" t="s">
+      <c r="B6" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="121"/>
+      <c r="C6" s="123"/>
       <c r="D6" s="110"/>
       <c r="E6" s="110"/>
       <c r="F6" s="111"/>
@@ -2330,15 +2333,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="str">
@@ -2415,17 +2418,17 @@
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B6" s="139" t="s">
+      <c r="B6" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="140"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="140"/>
-      <c r="F6" s="140"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="140"/>
-      <c r="I6" s="140"/>
-      <c r="J6" s="141"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="128"/>
+      <c r="J6" s="129"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -2438,40 +2441,40 @@
     </row>
     <row r="7" spans="2:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="142" t="s">
+      <c r="B8" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="122" t="s">
+      <c r="C8" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="123"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="124"/>
-      <c r="G8" s="122" t="s">
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="124"/>
-      <c r="L8" s="122" t="s">
+      <c r="H8" s="133"/>
+      <c r="I8" s="133"/>
+      <c r="J8" s="134"/>
+      <c r="L8" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="123"/>
-      <c r="N8" s="123"/>
-      <c r="O8" s="123"/>
-      <c r="P8" s="123"/>
-      <c r="Q8" s="124"/>
-      <c r="S8" s="122" t="s">
+      <c r="M8" s="133"/>
+      <c r="N8" s="133"/>
+      <c r="O8" s="133"/>
+      <c r="P8" s="133"/>
+      <c r="Q8" s="134"/>
+      <c r="S8" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="T8" s="123"/>
-      <c r="U8" s="123"/>
-      <c r="V8" s="123"/>
-      <c r="W8" s="123"/>
-      <c r="X8" s="124"/>
+      <c r="T8" s="133"/>
+      <c r="U8" s="133"/>
+      <c r="V8" s="133"/>
+      <c r="W8" s="133"/>
+      <c r="X8" s="134"/>
     </row>
     <row r="9" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="143"/>
+      <c r="B9" s="131"/>
       <c r="C9" s="18" t="s">
         <v>2</v>
       </c>
@@ -4336,47 +4339,47 @@
       <c r="B36" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="125">
+      <c r="C36" s="135">
         <f>C35+E35</f>
         <v>45</v>
       </c>
-      <c r="D36" s="125"/>
-      <c r="E36" s="126"/>
-      <c r="G36" s="127">
+      <c r="D36" s="135"/>
+      <c r="E36" s="136"/>
+      <c r="G36" s="137">
         <f>G35+I35</f>
         <v>7</v>
       </c>
-      <c r="H36" s="128"/>
-      <c r="I36" s="129"/>
-      <c r="L36" s="130">
+      <c r="H36" s="138"/>
+      <c r="I36" s="139"/>
+      <c r="L36" s="140">
         <f>SUM(L35:Q35)</f>
         <v>45</v>
       </c>
-      <c r="M36" s="131"/>
-      <c r="N36" s="131"/>
-      <c r="O36" s="131"/>
-      <c r="P36" s="131"/>
-      <c r="Q36" s="132"/>
-      <c r="S36" s="133">
+      <c r="M36" s="141"/>
+      <c r="N36" s="141"/>
+      <c r="O36" s="141"/>
+      <c r="P36" s="141"/>
+      <c r="Q36" s="142"/>
+      <c r="S36" s="143">
         <f>SUM(S35:X35)</f>
         <v>6</v>
       </c>
-      <c r="T36" s="134"/>
-      <c r="U36" s="134"/>
-      <c r="V36" s="134"/>
-      <c r="W36" s="134"/>
-      <c r="X36" s="135"/>
+      <c r="T36" s="144"/>
+      <c r="U36" s="144"/>
+      <c r="V36" s="144"/>
+      <c r="W36" s="144"/>
+      <c r="X36" s="145"/>
     </row>
     <row r="37" spans="2:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="136">
+      <c r="C37" s="124">
         <f>C39*C40</f>
         <v>42</v>
       </c>
-      <c r="D37" s="136"/>
-      <c r="E37" s="137"/>
+      <c r="D37" s="124"/>
+      <c r="E37" s="125"/>
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="2:24" x14ac:dyDescent="0.25">
@@ -4424,18 +4427,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="S8:X8"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="L36:Q36"/>
+    <mergeCell ref="S36:X36"/>
+    <mergeCell ref="L8:Q8"/>
     <mergeCell ref="C37:E37"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="G8:J8"/>
-    <mergeCell ref="S8:X8"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="L36:Q36"/>
-    <mergeCell ref="S36:X36"/>
-    <mergeCell ref="L8:Q8"/>
   </mergeCells>
   <conditionalFormatting sqref="C17:C34 C10:C15">
     <cfRule type="cellIs" dxfId="45" priority="8" operator="greaterThan">
@@ -4509,15 +4512,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B2" s="144" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
+      <c r="B2" s="162" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B4" s="54" t="str">
@@ -4594,17 +4597,17 @@
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B6" s="145" t="s">
+      <c r="B6" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="146"/>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="147"/>
+      <c r="C6" s="157"/>
+      <c r="D6" s="157"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="157"/>
+      <c r="G6" s="157"/>
+      <c r="H6" s="157"/>
+      <c r="I6" s="157"/>
+      <c r="J6" s="158"/>
       <c r="L6" s="53"/>
       <c r="M6" s="53"/>
       <c r="N6" s="53"/>
@@ -4617,40 +4620,40 @@
     </row>
     <row r="7" spans="2:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:24" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="148" t="s">
+      <c r="B8" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="150" t="s">
+      <c r="C8" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="151"/>
-      <c r="E8" s="151"/>
-      <c r="F8" s="152"/>
-      <c r="G8" s="150" t="s">
+      <c r="D8" s="147"/>
+      <c r="E8" s="147"/>
+      <c r="F8" s="148"/>
+      <c r="G8" s="146" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="151"/>
-      <c r="I8" s="151"/>
-      <c r="J8" s="152"/>
-      <c r="L8" s="150" t="s">
+      <c r="H8" s="147"/>
+      <c r="I8" s="147"/>
+      <c r="J8" s="148"/>
+      <c r="L8" s="146" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="151"/>
-      <c r="N8" s="151"/>
-      <c r="O8" s="151"/>
-      <c r="P8" s="151"/>
-      <c r="Q8" s="152"/>
-      <c r="S8" s="150" t="s">
+      <c r="M8" s="147"/>
+      <c r="N8" s="147"/>
+      <c r="O8" s="147"/>
+      <c r="P8" s="147"/>
+      <c r="Q8" s="148"/>
+      <c r="S8" s="146" t="s">
         <v>8</v>
       </c>
-      <c r="T8" s="151"/>
-      <c r="U8" s="151"/>
-      <c r="V8" s="151"/>
-      <c r="W8" s="151"/>
-      <c r="X8" s="152"/>
+      <c r="T8" s="147"/>
+      <c r="U8" s="147"/>
+      <c r="V8" s="147"/>
+      <c r="W8" s="147"/>
+      <c r="X8" s="148"/>
     </row>
     <row r="9" spans="2:24" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="149"/>
+      <c r="B9" s="165"/>
       <c r="C9" s="60" t="s">
         <v>2</v>
       </c>
@@ -6551,47 +6554,47 @@
       <c r="B36" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="153">
+      <c r="C36" s="149">
         <f>C35+E35</f>
         <v>41.25</v>
       </c>
-      <c r="D36" s="153"/>
-      <c r="E36" s="154"/>
-      <c r="G36" s="161">
+      <c r="D36" s="149"/>
+      <c r="E36" s="150"/>
+      <c r="G36" s="159">
         <f>G35+I35</f>
         <v>18.2</v>
       </c>
-      <c r="H36" s="162"/>
-      <c r="I36" s="163"/>
-      <c r="L36" s="157">
+      <c r="H36" s="160"/>
+      <c r="I36" s="161"/>
+      <c r="L36" s="153">
         <f>SUM(L35:Q35)</f>
         <v>27.25</v>
       </c>
-      <c r="M36" s="158"/>
-      <c r="N36" s="158"/>
-      <c r="O36" s="158"/>
-      <c r="P36" s="158"/>
-      <c r="Q36" s="159"/>
-      <c r="S36" s="160">
+      <c r="M36" s="154"/>
+      <c r="N36" s="154"/>
+      <c r="O36" s="154"/>
+      <c r="P36" s="154"/>
+      <c r="Q36" s="155"/>
+      <c r="S36" s="156">
         <f>SUM(S35:X35)</f>
         <v>18.2</v>
       </c>
-      <c r="T36" s="146"/>
-      <c r="U36" s="146"/>
-      <c r="V36" s="146"/>
-      <c r="W36" s="146"/>
-      <c r="X36" s="147"/>
+      <c r="T36" s="157"/>
+      <c r="U36" s="157"/>
+      <c r="V36" s="157"/>
+      <c r="W36" s="157"/>
+      <c r="X36" s="158"/>
     </row>
     <row r="37" spans="2:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="155">
+      <c r="C37" s="151">
         <f>C39*C40</f>
         <v>42</v>
       </c>
-      <c r="D37" s="155"/>
-      <c r="E37" s="156"/>
+      <c r="D37" s="151"/>
+      <c r="E37" s="152"/>
       <c r="F37" s="53"/>
     </row>
     <row r="38" spans="2:24" x14ac:dyDescent="0.25">
@@ -6639,6 +6642,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:J8"/>
     <mergeCell ref="S8:X8"/>
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="C37:E37"/>
@@ -6646,11 +6654,6 @@
     <mergeCell ref="S36:X36"/>
     <mergeCell ref="G36:I36"/>
     <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:J8"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:C34">
     <cfRule type="cellIs" dxfId="37" priority="7" operator="greaterThan">
@@ -6694,10 +6697,10 @@
   <dimension ref="B2:X42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="9" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="B22" activeCellId="2" sqref="B20 B21 B22"/>
+      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6715,15 +6718,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="str">
@@ -6800,17 +6803,17 @@
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B6" s="139" t="s">
+      <c r="B6" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="140"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="140"/>
-      <c r="F6" s="140"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="140"/>
-      <c r="I6" s="140"/>
-      <c r="J6" s="141"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="128"/>
+      <c r="J6" s="129"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -6823,40 +6826,40 @@
     </row>
     <row r="7" spans="2:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="142" t="s">
+      <c r="B8" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="122" t="s">
+      <c r="C8" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="123"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="124"/>
-      <c r="G8" s="122" t="s">
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="124"/>
-      <c r="L8" s="122" t="s">
+      <c r="H8" s="133"/>
+      <c r="I8" s="133"/>
+      <c r="J8" s="134"/>
+      <c r="L8" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="123"/>
-      <c r="N8" s="123"/>
-      <c r="O8" s="123"/>
-      <c r="P8" s="123"/>
-      <c r="Q8" s="124"/>
-      <c r="S8" s="122" t="s">
+      <c r="M8" s="133"/>
+      <c r="N8" s="133"/>
+      <c r="O8" s="133"/>
+      <c r="P8" s="133"/>
+      <c r="Q8" s="134"/>
+      <c r="S8" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="T8" s="123"/>
-      <c r="U8" s="123"/>
-      <c r="V8" s="123"/>
-      <c r="W8" s="123"/>
-      <c r="X8" s="124"/>
+      <c r="T8" s="133"/>
+      <c r="U8" s="133"/>
+      <c r="V8" s="133"/>
+      <c r="W8" s="133"/>
+      <c r="X8" s="134"/>
     </row>
     <row r="9" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="143"/>
+      <c r="B9" s="131"/>
       <c r="C9" s="18" t="s">
         <v>2</v>
       </c>
@@ -8719,47 +8722,47 @@
       <c r="B36" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="125">
+      <c r="C36" s="135">
         <f>C35+E35</f>
         <v>45</v>
       </c>
-      <c r="D36" s="125"/>
-      <c r="E36" s="126"/>
-      <c r="G36" s="127">
+      <c r="D36" s="135"/>
+      <c r="E36" s="136"/>
+      <c r="G36" s="137">
         <f>G35+I35</f>
         <v>6</v>
       </c>
-      <c r="H36" s="128"/>
-      <c r="I36" s="129"/>
-      <c r="L36" s="130">
+      <c r="H36" s="138"/>
+      <c r="I36" s="139"/>
+      <c r="L36" s="140">
         <f>SUM(L35:Q35)</f>
         <v>45</v>
       </c>
-      <c r="M36" s="131"/>
-      <c r="N36" s="131"/>
-      <c r="O36" s="131"/>
-      <c r="P36" s="131"/>
-      <c r="Q36" s="132"/>
-      <c r="S36" s="133">
+      <c r="M36" s="141"/>
+      <c r="N36" s="141"/>
+      <c r="O36" s="141"/>
+      <c r="P36" s="141"/>
+      <c r="Q36" s="142"/>
+      <c r="S36" s="143">
         <f>SUM(S35:X35)</f>
         <v>6</v>
       </c>
-      <c r="T36" s="134"/>
-      <c r="U36" s="134"/>
-      <c r="V36" s="134"/>
-      <c r="W36" s="134"/>
-      <c r="X36" s="135"/>
+      <c r="T36" s="144"/>
+      <c r="U36" s="144"/>
+      <c r="V36" s="144"/>
+      <c r="W36" s="144"/>
+      <c r="X36" s="145"/>
     </row>
     <row r="37" spans="2:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="136">
+      <c r="C37" s="124">
         <f>C39*C40</f>
         <v>42</v>
       </c>
-      <c r="D37" s="136"/>
-      <c r="E37" s="137"/>
+      <c r="D37" s="124"/>
+      <c r="E37" s="125"/>
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="2:24" x14ac:dyDescent="0.25">
@@ -8807,18 +8810,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="S8:X8"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="L36:Q36"/>
+    <mergeCell ref="S36:X36"/>
+    <mergeCell ref="L8:Q8"/>
     <mergeCell ref="C37:E37"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="G8:J8"/>
-    <mergeCell ref="S8:X8"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="L36:Q36"/>
-    <mergeCell ref="S36:X36"/>
-    <mergeCell ref="L8:Q8"/>
   </mergeCells>
   <conditionalFormatting sqref="C28:C34">
     <cfRule type="cellIs" dxfId="30" priority="9" operator="greaterThan">
@@ -8893,15 +8896,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="str">
@@ -8978,17 +8981,17 @@
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B6" s="139" t="s">
+      <c r="B6" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="140"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="140"/>
-      <c r="F6" s="140"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="140"/>
-      <c r="I6" s="140"/>
-      <c r="J6" s="141"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="128"/>
+      <c r="J6" s="129"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -9001,40 +9004,40 @@
     </row>
     <row r="7" spans="2:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="142" t="s">
+      <c r="B8" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="122" t="s">
+      <c r="C8" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="123"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="124"/>
-      <c r="G8" s="122" t="s">
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="124"/>
-      <c r="L8" s="122" t="s">
+      <c r="H8" s="133"/>
+      <c r="I8" s="133"/>
+      <c r="J8" s="134"/>
+      <c r="L8" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="123"/>
-      <c r="N8" s="123"/>
-      <c r="O8" s="123"/>
-      <c r="P8" s="123"/>
-      <c r="Q8" s="124"/>
-      <c r="S8" s="122" t="s">
+      <c r="M8" s="133"/>
+      <c r="N8" s="133"/>
+      <c r="O8" s="133"/>
+      <c r="P8" s="133"/>
+      <c r="Q8" s="134"/>
+      <c r="S8" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="T8" s="123"/>
-      <c r="U8" s="123"/>
-      <c r="V8" s="123"/>
-      <c r="W8" s="123"/>
-      <c r="X8" s="124"/>
+      <c r="T8" s="133"/>
+      <c r="U8" s="133"/>
+      <c r="V8" s="133"/>
+      <c r="W8" s="133"/>
+      <c r="X8" s="134"/>
     </row>
     <row r="9" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="143"/>
+      <c r="B9" s="131"/>
       <c r="C9" s="18" t="s">
         <v>2</v>
       </c>
@@ -9121,7 +9124,7 @@
       <c r="H10" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I10" s="164"/>
+      <c r="I10" s="116"/>
       <c r="J10" s="21" t="s">
         <v>71</v>
       </c>
@@ -9193,7 +9196,7 @@
       <c r="H11" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="I11" s="164"/>
+      <c r="I11" s="116"/>
       <c r="J11" s="21" t="s">
         <v>72</v>
       </c>
@@ -9269,7 +9272,7 @@
       <c r="H12" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I12" s="164">
+      <c r="I12" s="116">
         <v>1</v>
       </c>
       <c r="J12" s="21" t="s">
@@ -9343,7 +9346,7 @@
       <c r="H13" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="164"/>
+      <c r="I13" s="116"/>
       <c r="J13" s="21" t="s">
         <v>69</v>
       </c>
@@ -9415,7 +9418,7 @@
       <c r="H14" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="I14" s="164"/>
+      <c r="I14" s="116"/>
       <c r="J14" s="21" t="s">
         <v>82</v>
       </c>
@@ -10785,47 +10788,47 @@
       <c r="B36" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="125">
+      <c r="C36" s="135">
         <f>C35+E35</f>
         <v>6.25</v>
       </c>
-      <c r="D36" s="125"/>
-      <c r="E36" s="126"/>
-      <c r="G36" s="127">
+      <c r="D36" s="135"/>
+      <c r="E36" s="136"/>
+      <c r="G36" s="137">
         <f>G35+I35</f>
         <v>6</v>
       </c>
-      <c r="H36" s="128"/>
-      <c r="I36" s="129"/>
-      <c r="L36" s="130">
+      <c r="H36" s="138"/>
+      <c r="I36" s="139"/>
+      <c r="L36" s="140">
         <f>SUM(L35:Q35)</f>
         <v>1.25</v>
       </c>
-      <c r="M36" s="131"/>
-      <c r="N36" s="131"/>
-      <c r="O36" s="131"/>
-      <c r="P36" s="131"/>
-      <c r="Q36" s="132"/>
-      <c r="S36" s="133">
+      <c r="M36" s="141"/>
+      <c r="N36" s="141"/>
+      <c r="O36" s="141"/>
+      <c r="P36" s="141"/>
+      <c r="Q36" s="142"/>
+      <c r="S36" s="143">
         <f>SUM(S35:X35)</f>
         <v>1</v>
       </c>
-      <c r="T36" s="134"/>
-      <c r="U36" s="134"/>
-      <c r="V36" s="134"/>
-      <c r="W36" s="134"/>
-      <c r="X36" s="135"/>
+      <c r="T36" s="144"/>
+      <c r="U36" s="144"/>
+      <c r="V36" s="144"/>
+      <c r="W36" s="144"/>
+      <c r="X36" s="145"/>
     </row>
     <row r="37" spans="2:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="136">
+      <c r="C37" s="124">
         <f>C39*C40</f>
         <v>42</v>
       </c>
-      <c r="D37" s="136"/>
-      <c r="E37" s="137"/>
+      <c r="D37" s="124"/>
+      <c r="E37" s="125"/>
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="2:24" x14ac:dyDescent="0.25">
@@ -10873,18 +10876,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="S8:X8"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="L36:Q36"/>
+    <mergeCell ref="S36:X36"/>
+    <mergeCell ref="L8:Q8"/>
     <mergeCell ref="C37:E37"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="G8:J8"/>
-    <mergeCell ref="S8:X8"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="L36:Q36"/>
-    <mergeCell ref="S36:X36"/>
-    <mergeCell ref="L8:Q8"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:C34">
     <cfRule type="cellIs" dxfId="21" priority="7" operator="greaterThan">
@@ -10949,15 +10952,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="str">
@@ -11034,17 +11037,17 @@
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B6" s="139" t="s">
+      <c r="B6" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="140"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="140"/>
-      <c r="F6" s="140"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="140"/>
-      <c r="I6" s="140"/>
-      <c r="J6" s="141"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="128"/>
+      <c r="J6" s="129"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -11057,40 +11060,40 @@
     </row>
     <row r="7" spans="2:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="142" t="s">
+      <c r="B8" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="122" t="s">
+      <c r="C8" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="123"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="124"/>
-      <c r="G8" s="122" t="s">
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="124"/>
-      <c r="L8" s="122" t="s">
+      <c r="H8" s="133"/>
+      <c r="I8" s="133"/>
+      <c r="J8" s="134"/>
+      <c r="L8" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="123"/>
-      <c r="N8" s="123"/>
-      <c r="O8" s="123"/>
-      <c r="P8" s="123"/>
-      <c r="Q8" s="124"/>
-      <c r="S8" s="122" t="s">
+      <c r="M8" s="133"/>
+      <c r="N8" s="133"/>
+      <c r="O8" s="133"/>
+      <c r="P8" s="133"/>
+      <c r="Q8" s="134"/>
+      <c r="S8" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="T8" s="123"/>
-      <c r="U8" s="123"/>
-      <c r="V8" s="123"/>
-      <c r="W8" s="123"/>
-      <c r="X8" s="124"/>
+      <c r="T8" s="133"/>
+      <c r="U8" s="133"/>
+      <c r="V8" s="133"/>
+      <c r="W8" s="133"/>
+      <c r="X8" s="134"/>
     </row>
     <row r="9" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="143"/>
+      <c r="B9" s="131"/>
       <c r="C9" s="18" t="s">
         <v>2</v>
       </c>
@@ -12845,47 +12848,47 @@
       <c r="B36" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="125">
+      <c r="C36" s="135">
         <f>C35+E35</f>
         <v>7.5</v>
       </c>
-      <c r="D36" s="125"/>
-      <c r="E36" s="126"/>
-      <c r="G36" s="127">
+      <c r="D36" s="135"/>
+      <c r="E36" s="136"/>
+      <c r="G36" s="137">
         <f>G35+I35</f>
         <v>10</v>
       </c>
-      <c r="H36" s="128"/>
-      <c r="I36" s="129"/>
-      <c r="L36" s="130">
+      <c r="H36" s="138"/>
+      <c r="I36" s="139"/>
+      <c r="L36" s="140">
         <f>SUM(L35:Q35)</f>
         <v>4.5</v>
       </c>
-      <c r="M36" s="131"/>
-      <c r="N36" s="131"/>
-      <c r="O36" s="131"/>
-      <c r="P36" s="131"/>
-      <c r="Q36" s="132"/>
-      <c r="S36" s="133">
+      <c r="M36" s="141"/>
+      <c r="N36" s="141"/>
+      <c r="O36" s="141"/>
+      <c r="P36" s="141"/>
+      <c r="Q36" s="142"/>
+      <c r="S36" s="143">
         <f>SUM(S35:X35)</f>
         <v>6</v>
       </c>
-      <c r="T36" s="134"/>
-      <c r="U36" s="134"/>
-      <c r="V36" s="134"/>
-      <c r="W36" s="134"/>
-      <c r="X36" s="135"/>
+      <c r="T36" s="144"/>
+      <c r="U36" s="144"/>
+      <c r="V36" s="144"/>
+      <c r="W36" s="144"/>
+      <c r="X36" s="145"/>
     </row>
     <row r="37" spans="2:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="136">
+      <c r="C37" s="124">
         <f>C39*C40</f>
         <v>42</v>
       </c>
-      <c r="D37" s="136"/>
-      <c r="E37" s="137"/>
+      <c r="D37" s="124"/>
+      <c r="E37" s="125"/>
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="2:24" x14ac:dyDescent="0.25">
@@ -12933,18 +12936,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="S8:X8"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="L36:Q36"/>
+    <mergeCell ref="S36:X36"/>
+    <mergeCell ref="L8:Q8"/>
     <mergeCell ref="C37:E37"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="G8:J8"/>
-    <mergeCell ref="S8:X8"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="L36:Q36"/>
-    <mergeCell ref="S36:X36"/>
-    <mergeCell ref="L8:Q8"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:C34">
     <cfRule type="cellIs" dxfId="14" priority="7" operator="greaterThan">
@@ -12991,7 +12994,7 @@
       <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="K18" sqref="K18"/>
+      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -13009,15 +13012,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="str">
@@ -13094,17 +13097,17 @@
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B6" s="139" t="s">
+      <c r="B6" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="140"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="140"/>
-      <c r="F6" s="140"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="140"/>
-      <c r="I6" s="140"/>
-      <c r="J6" s="141"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="128"/>
+      <c r="J6" s="129"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -13117,40 +13120,40 @@
     </row>
     <row r="7" spans="2:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="142" t="s">
+      <c r="B8" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="122" t="s">
+      <c r="C8" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="123"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="124"/>
-      <c r="G8" s="122" t="s">
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="124"/>
-      <c r="L8" s="122" t="s">
+      <c r="H8" s="133"/>
+      <c r="I8" s="133"/>
+      <c r="J8" s="134"/>
+      <c r="L8" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="123"/>
-      <c r="N8" s="123"/>
-      <c r="O8" s="123"/>
-      <c r="P8" s="123"/>
-      <c r="Q8" s="124"/>
-      <c r="S8" s="122" t="s">
+      <c r="M8" s="133"/>
+      <c r="N8" s="133"/>
+      <c r="O8" s="133"/>
+      <c r="P8" s="133"/>
+      <c r="Q8" s="134"/>
+      <c r="S8" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="T8" s="123"/>
-      <c r="U8" s="123"/>
-      <c r="V8" s="123"/>
-      <c r="W8" s="123"/>
-      <c r="X8" s="124"/>
+      <c r="T8" s="133"/>
+      <c r="U8" s="133"/>
+      <c r="V8" s="133"/>
+      <c r="W8" s="133"/>
+      <c r="X8" s="134"/>
     </row>
     <row r="9" spans="2:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="143"/>
+      <c r="B9" s="131"/>
       <c r="C9" s="18" t="s">
         <v>2</v>
       </c>
@@ -13235,13 +13238,13 @@
       <c r="F10" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G10" s="165">
+      <c r="G10" s="117">
         <v>5</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="I10" s="164"/>
+      <c r="I10" s="116"/>
       <c r="J10" s="21" t="s">
         <v>71</v>
       </c>
@@ -13317,7 +13320,7 @@
       <c r="H11" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="I11" s="164"/>
+      <c r="I11" s="116"/>
       <c r="J11" s="21" t="s">
         <v>71</v>
       </c>
@@ -13389,7 +13392,7 @@
       <c r="H12" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="I12" s="164"/>
+      <c r="I12" s="116"/>
       <c r="J12" s="21" t="s">
         <v>70</v>
       </c>
@@ -13461,7 +13464,7 @@
       <c r="H13" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I13" s="164"/>
+      <c r="I13" s="116"/>
       <c r="J13" s="21" t="s">
         <v>68</v>
       </c>
@@ -13533,7 +13536,7 @@
       <c r="H14" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="I14" s="164"/>
+      <c r="I14" s="116"/>
       <c r="J14" s="21" t="s">
         <v>68</v>
       </c>
@@ -13605,7 +13608,7 @@
       <c r="H15" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="I15" s="164"/>
+      <c r="I15" s="116"/>
       <c r="J15" s="21" t="s">
         <v>69</v>
       </c>
@@ -13677,7 +13680,7 @@
       <c r="H16" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="I16" s="164"/>
+      <c r="I16" s="116"/>
       <c r="J16" s="21" t="s">
         <v>72</v>
       </c>
@@ -13731,18 +13734,28 @@
       </c>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B17" s="16"/>
+      <c r="B17" s="16" t="s">
+        <v>102</v>
+      </c>
       <c r="C17" s="20"/>
-      <c r="D17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="E17" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F17" s="21"/>
+      <c r="F17" s="21" t="s">
+        <v>72</v>
+      </c>
       <c r="G17" s="20"/>
-      <c r="H17" s="4"/>
+      <c r="H17" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="I17" s="46"/>
-      <c r="J17" s="21"/>
+      <c r="J17" s="21" t="s">
+        <v>72</v>
+      </c>
       <c r="L17" s="40">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -14923,47 +14936,47 @@
       <c r="B36" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="125">
+      <c r="C36" s="135">
         <f>C35+E35</f>
         <v>8.75</v>
       </c>
-      <c r="D36" s="125"/>
-      <c r="E36" s="126"/>
-      <c r="G36" s="127">
+      <c r="D36" s="135"/>
+      <c r="E36" s="136"/>
+      <c r="G36" s="137">
         <f>G35+I35</f>
         <v>7</v>
       </c>
-      <c r="H36" s="128"/>
-      <c r="I36" s="129"/>
-      <c r="L36" s="130">
+      <c r="H36" s="138"/>
+      <c r="I36" s="139"/>
+      <c r="L36" s="140">
         <f>SUM(L35:Q35)</f>
         <v>8.75</v>
       </c>
-      <c r="M36" s="131"/>
-      <c r="N36" s="131"/>
-      <c r="O36" s="131"/>
-      <c r="P36" s="131"/>
-      <c r="Q36" s="132"/>
-      <c r="S36" s="133">
+      <c r="M36" s="141"/>
+      <c r="N36" s="141"/>
+      <c r="O36" s="141"/>
+      <c r="P36" s="141"/>
+      <c r="Q36" s="142"/>
+      <c r="S36" s="143">
         <f>SUM(S35:X35)</f>
         <v>7</v>
       </c>
-      <c r="T36" s="134"/>
-      <c r="U36" s="134"/>
-      <c r="V36" s="134"/>
-      <c r="W36" s="134"/>
-      <c r="X36" s="135"/>
+      <c r="T36" s="144"/>
+      <c r="U36" s="144"/>
+      <c r="V36" s="144"/>
+      <c r="W36" s="144"/>
+      <c r="X36" s="145"/>
     </row>
     <row r="37" spans="2:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="136">
+      <c r="C37" s="124">
         <f>C39*C40</f>
         <v>42</v>
       </c>
-      <c r="D37" s="136"/>
-      <c r="E37" s="137"/>
+      <c r="D37" s="124"/>
+      <c r="E37" s="125"/>
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="2:24" x14ac:dyDescent="0.25">
@@ -15011,18 +15024,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="S8:X8"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="L36:Q36"/>
+    <mergeCell ref="S36:X36"/>
+    <mergeCell ref="L8:Q8"/>
     <mergeCell ref="C37:E37"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="G8:J8"/>
-    <mergeCell ref="S8:X8"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="L36:Q36"/>
-    <mergeCell ref="S36:X36"/>
-    <mergeCell ref="L8:Q8"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:C34">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
@@ -15067,9 +15080,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15276,27 +15292,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21F7B50A-2E98-44F9-ACD4-50B4039AFCBB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A19769AF-35A5-453C-B678-4E12F267A32D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="a24e9797-c9de-4ae0-9124-5b215385d802"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="85fa55d4-3ee8-4bc4-8fbc-63473e847397"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -15321,9 +15325,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A19769AF-35A5-453C-B678-4E12F267A32D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21F7B50A-2E98-44F9-ACD4-50B4039AFCBB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="a24e9797-c9de-4ae0-9124-5b215385d802"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="85fa55d4-3ee8-4bc4-8fbc-63473e847397"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>